--- a/Real Estate.xlsx
+++ b/Real Estate.xlsx
@@ -1,15 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="15915" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20016" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -17,218 +27,81 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>No</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>X1 transaction date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>X2 house age</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>X3 distance to the nearest MRT station</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>X4 number of convenience stores</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>X5 latitude</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>X6 longitude</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Y house price of unit area</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color indexed="36"/>
       <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="新細明體"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,194 +114,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -438,267 +125,25 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -709,75 +154,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="49" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
-    <cellStyle name="一般 2" xfId="49"/>
+  <cellStyles count="2">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -826,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -861,7 +262,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1035,25 +436,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H415"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="8.88333333333333" style="1"/>
-    <col min="2" max="8" width="30.775" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="8" width="30.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:8">
+    <row r="1" spans="1:8" ht="18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1090,13 +496,13 @@
         <v>32</v>
       </c>
       <c r="D2" s="4">
-        <v>84.87882</v>
+        <v>84.878820000000005</v>
       </c>
       <c r="E2" s="4">
         <v>10</v>
       </c>
       <c r="F2" s="4">
-        <v>24.98298</v>
+        <v>24.982980000000001</v>
       </c>
       <c r="G2" s="4">
         <v>121.54024</v>
@@ -1116,16 +522,16 @@
         <v>19.5</v>
       </c>
       <c r="D3" s="4">
-        <v>306.5947</v>
+        <v>306.59469999999999</v>
       </c>
       <c r="E3" s="4">
         <v>9</v>
       </c>
       <c r="F3" s="4">
-        <v>24.98034</v>
+        <v>24.980340000000002</v>
       </c>
       <c r="G3" s="4">
-        <v>121.53951</v>
+        <v>121.53951000000001</v>
       </c>
       <c r="H3" s="1">
         <v>42.2</v>
@@ -1142,13 +548,13 @@
         <v>13.3</v>
       </c>
       <c r="D4" s="4">
-        <v>561.9845</v>
+        <v>561.98450000000003</v>
       </c>
       <c r="E4" s="4">
         <v>5</v>
       </c>
       <c r="F4" s="4">
-        <v>24.98746</v>
+        <v>24.987459999999999</v>
       </c>
       <c r="G4" s="4">
         <v>121.54391</v>
@@ -1168,13 +574,13 @@
         <v>13.3</v>
       </c>
       <c r="D5" s="4">
-        <v>561.9845</v>
+        <v>561.98450000000003</v>
       </c>
       <c r="E5" s="4">
         <v>5</v>
       </c>
       <c r="F5" s="4">
-        <v>24.98746</v>
+        <v>24.987459999999999</v>
       </c>
       <c r="G5" s="4">
         <v>121.54391</v>
@@ -1200,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="4">
-        <v>24.97937</v>
+        <v>24.979369999999999</v>
       </c>
       <c r="G6" s="4">
         <v>121.54245</v>
@@ -1220,13 +626,13 @@
         <v>7.1</v>
       </c>
       <c r="D7" s="4">
-        <v>2175.03</v>
+        <v>2175.0300000000002</v>
       </c>
       <c r="E7" s="4">
         <v>3</v>
       </c>
       <c r="F7" s="4">
-        <v>24.96305</v>
+        <v>24.963049999999999</v>
       </c>
       <c r="G7" s="4">
         <v>121.51254</v>
@@ -1246,19 +652,19 @@
         <v>34.5</v>
       </c>
       <c r="D8" s="4">
-        <v>623.4731</v>
+        <v>623.47310000000004</v>
       </c>
       <c r="E8" s="4">
         <v>7</v>
       </c>
       <c r="F8" s="4">
-        <v>24.97933</v>
+        <v>24.979330000000001</v>
       </c>
       <c r="G8" s="4">
-        <v>121.53642</v>
+        <v>121.53642000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1272,16 +678,16 @@
         <v>20.3</v>
       </c>
       <c r="D9" s="4">
-        <v>287.6025</v>
+        <v>287.60250000000002</v>
       </c>
       <c r="E9" s="4">
         <v>6</v>
       </c>
       <c r="F9" s="4">
-        <v>24.98042</v>
+        <v>24.980419999999999</v>
       </c>
       <c r="G9" s="4">
-        <v>121.54228</v>
+        <v>121.54228000000001</v>
       </c>
       <c r="H9" s="1">
         <v>46.7</v>
@@ -1298,16 +704,16 @@
         <v>31.7</v>
       </c>
       <c r="D10" s="4">
-        <v>5512.038</v>
+        <v>5512.0379999999996</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>24.95095</v>
+        <v>24.950949999999999</v>
       </c>
       <c r="G10" s="4">
-        <v>121.48458</v>
+        <v>121.48457999999999</v>
       </c>
       <c r="H10" s="1">
         <v>18.8</v>
@@ -1321,7 +727,7 @@
         <v>2013.4166667</v>
       </c>
       <c r="C11" s="4">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D11" s="4">
         <v>1783.18</v>
@@ -1330,7 +736,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="4">
-        <v>24.96731</v>
+        <v>24.967310000000001</v>
       </c>
       <c r="G11" s="4">
         <v>121.51486</v>
@@ -1347,16 +753,16 @@
         <v>2013.0833333</v>
       </c>
       <c r="C12" s="4">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="D12" s="4">
-        <v>405.2134</v>
+        <v>405.21339999999998</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>24.97349</v>
+        <v>24.973490000000002</v>
       </c>
       <c r="G12" s="4">
         <v>121.53372</v>
@@ -1376,13 +782,13 @@
         <v>6.3</v>
       </c>
       <c r="D13" s="4">
-        <v>90.45606</v>
+        <v>90.456059999999994</v>
       </c>
       <c r="E13" s="4">
         <v>9</v>
       </c>
       <c r="F13" s="4">
-        <v>24.97433</v>
+        <v>24.974329999999998</v>
       </c>
       <c r="G13" s="4">
         <v>121.5431</v>
@@ -1402,19 +808,19 @@
         <v>13</v>
       </c>
       <c r="D14" s="4">
-        <v>492.2313</v>
+        <v>492.23129999999998</v>
       </c>
       <c r="E14" s="4">
         <v>5</v>
       </c>
       <c r="F14" s="4">
-        <v>24.96515</v>
+        <v>24.965150000000001</v>
       </c>
       <c r="G14" s="4">
         <v>121.53737</v>
       </c>
       <c r="H14" s="1">
-        <v>39.3</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1425,7 +831,7 @@
         <v>2012.6666667</v>
       </c>
       <c r="C15" s="4">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="D15" s="4">
         <v>2469.645</v>
@@ -1434,10 +840,10 @@
         <v>4</v>
       </c>
       <c r="F15" s="4">
-        <v>24.96108</v>
+        <v>24.961079999999999</v>
       </c>
       <c r="G15" s="4">
-        <v>121.51046</v>
+        <v>121.51045999999999</v>
       </c>
       <c r="H15" s="1">
         <v>23.8</v>
@@ -1466,7 +872,7 @@
         <v>121.53406</v>
       </c>
       <c r="H16" s="1">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1477,16 +883,16 @@
         <v>2013.5833333</v>
       </c>
       <c r="C17" s="4">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="D17" s="4">
-        <v>579.2083</v>
+        <v>579.20830000000001</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
       </c>
       <c r="F17" s="4">
-        <v>24.9824</v>
+        <v>24.982399999999998</v>
       </c>
       <c r="G17" s="4">
         <v>121.54619</v>
@@ -1506,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="D18" s="4">
-        <v>292.9978</v>
+        <v>292.99779999999998</v>
       </c>
       <c r="E18" s="4">
         <v>6</v>
       </c>
       <c r="F18" s="4">
-        <v>24.97744</v>
+        <v>24.977440000000001</v>
       </c>
       <c r="G18" s="4">
         <v>121.54458</v>
       </c>
       <c r="H18" s="1">
-        <v>70.1</v>
+        <v>70.099999999999994</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1532,13 +938,13 @@
         <v>17.7</v>
       </c>
       <c r="D19" s="4">
-        <v>350.8515</v>
+        <v>350.85149999999999</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
       </c>
       <c r="F19" s="4">
-        <v>24.97544</v>
+        <v>24.975439999999999</v>
       </c>
       <c r="G19" s="4">
         <v>121.53119</v>
@@ -1555,16 +961,16 @@
         <v>2013.4166667</v>
       </c>
       <c r="C20" s="4">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D20" s="4">
-        <v>368.1363</v>
+        <v>368.13630000000001</v>
       </c>
       <c r="E20" s="4">
         <v>8</v>
       </c>
       <c r="F20" s="4">
-        <v>24.9675</v>
+        <v>24.967500000000001</v>
       </c>
       <c r="G20" s="4">
         <v>121.54451</v>
@@ -1584,7 +990,7 @@
         <v>1.5</v>
       </c>
       <c r="D21" s="4">
-        <v>23.38284</v>
+        <v>23.382840000000002</v>
       </c>
       <c r="E21" s="4">
         <v>7</v>
@@ -1616,7 +1022,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="4">
-        <v>24.96314</v>
+        <v>24.963139999999999</v>
       </c>
       <c r="G22" s="4">
         <v>121.51151</v>
@@ -1636,13 +1042,13 @@
         <v>10.5</v>
       </c>
       <c r="D23" s="4">
-        <v>279.1726</v>
+        <v>279.17259999999999</v>
       </c>
       <c r="E23" s="4">
         <v>7</v>
       </c>
       <c r="F23" s="4">
-        <v>24.97528</v>
+        <v>24.975280000000001</v>
       </c>
       <c r="G23" s="4">
         <v>121.54541</v>
@@ -1662,7 +1068,7 @@
         <v>14.7</v>
       </c>
       <c r="D24" s="4">
-        <v>1360.139</v>
+        <v>1360.1389999999999</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -1671,7 +1077,7 @@
         <v>24.95204</v>
       </c>
       <c r="G24" s="4">
-        <v>121.54842</v>
+        <v>121.54841999999999</v>
       </c>
       <c r="H24" s="1">
         <v>24.6</v>
@@ -1688,13 +1094,13 @@
         <v>10.1</v>
       </c>
       <c r="D25" s="4">
-        <v>279.1726</v>
+        <v>279.17259999999999</v>
       </c>
       <c r="E25" s="4">
         <v>7</v>
       </c>
       <c r="F25" s="4">
-        <v>24.97528</v>
+        <v>24.975280000000001</v>
       </c>
       <c r="G25" s="4">
         <v>121.54541</v>
@@ -1726,7 +1132,7 @@
         <v>121.53885</v>
       </c>
       <c r="H26" s="1">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1740,7 +1146,7 @@
         <v>29.3</v>
       </c>
       <c r="D27" s="4">
-        <v>1487.868</v>
+        <v>1487.8679999999999</v>
       </c>
       <c r="E27" s="4">
         <v>2</v>
@@ -1749,7 +1155,7 @@
         <v>24.97542</v>
       </c>
       <c r="G27" s="4">
-        <v>121.51726</v>
+        <v>121.51725999999999</v>
       </c>
       <c r="H27" s="1">
         <v>27</v>
@@ -1766,7 +1172,7 @@
         <v>3.1</v>
       </c>
       <c r="D28" s="4">
-        <v>383.8624</v>
+        <v>383.86239999999998</v>
       </c>
       <c r="E28" s="4">
         <v>5</v>
@@ -1792,13 +1198,13 @@
         <v>10.4</v>
       </c>
       <c r="D29" s="4">
-        <v>276.449</v>
+        <v>276.44900000000001</v>
       </c>
       <c r="E29" s="4">
         <v>5</v>
       </c>
       <c r="F29" s="4">
-        <v>24.95593</v>
+        <v>24.955929999999999</v>
       </c>
       <c r="G29" s="4">
         <v>121.53913</v>
@@ -1818,7 +1224,7 @@
         <v>19.2</v>
       </c>
       <c r="D30" s="4">
-        <v>557.478</v>
+        <v>557.47799999999995</v>
       </c>
       <c r="E30" s="4">
         <v>4</v>
@@ -1844,16 +1250,16 @@
         <v>7.1</v>
       </c>
       <c r="D31" s="4">
-        <v>451.2438</v>
+        <v>451.24380000000002</v>
       </c>
       <c r="E31" s="4">
         <v>5</v>
       </c>
       <c r="F31" s="4">
-        <v>24.97563</v>
+        <v>24.975629999999999</v>
       </c>
       <c r="G31" s="4">
-        <v>121.54694</v>
+        <v>121.54694000000001</v>
       </c>
       <c r="H31" s="1">
         <v>57.1</v>
@@ -1870,13 +1276,13 @@
         <v>25.9</v>
       </c>
       <c r="D32" s="4">
-        <v>4519.69</v>
+        <v>4519.6899999999996</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
       </c>
       <c r="F32" s="4">
-        <v>24.94826</v>
+        <v>24.948260000000001</v>
       </c>
       <c r="G32" s="4">
         <v>121.49587</v>
@@ -1896,13 +1302,13 @@
         <v>29.6</v>
       </c>
       <c r="D33" s="4">
-        <v>769.4034</v>
+        <v>769.40340000000003</v>
       </c>
       <c r="E33" s="4">
         <v>7</v>
       </c>
       <c r="F33" s="4">
-        <v>24.98281</v>
+        <v>24.982810000000001</v>
       </c>
       <c r="G33" s="4">
         <v>121.53408</v>
@@ -1928,13 +1334,13 @@
         <v>1</v>
       </c>
       <c r="F34" s="4">
-        <v>24.97349</v>
+        <v>24.973490000000002</v>
       </c>
       <c r="G34" s="4">
         <v>121.53451</v>
       </c>
       <c r="H34" s="1">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1948,7 +1354,7 @@
         <v>16.5</v>
       </c>
       <c r="D35" s="4">
-        <v>323.655</v>
+        <v>323.65499999999997</v>
       </c>
       <c r="E35" s="4">
         <v>6</v>
@@ -1974,13 +1380,13 @@
         <v>15.4</v>
       </c>
       <c r="D36" s="4">
-        <v>205.367</v>
+        <v>205.36699999999999</v>
       </c>
       <c r="E36" s="4">
         <v>7</v>
       </c>
       <c r="F36" s="4">
-        <v>24.98419</v>
+        <v>24.984190000000002</v>
       </c>
       <c r="G36" s="4">
         <v>121.54243</v>
@@ -2000,16 +1406,16 @@
         <v>13.9</v>
       </c>
       <c r="D37" s="4">
-        <v>4079.418</v>
+        <v>4079.4180000000001</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
       </c>
       <c r="F37" s="4">
-        <v>25.01459</v>
+        <v>25.014589999999998</v>
       </c>
       <c r="G37" s="4">
-        <v>121.51816</v>
+        <v>121.51815999999999</v>
       </c>
       <c r="H37" s="1">
         <v>27.3</v>
@@ -2052,7 +1458,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="4">
-        <v>1360.139</v>
+        <v>1360.1389999999999</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -2061,7 +1467,7 @@
         <v>24.95204</v>
       </c>
       <c r="G39" s="4">
-        <v>121.54842</v>
+        <v>121.54841999999999</v>
       </c>
       <c r="H39" s="1">
         <v>25.3</v>
@@ -2084,7 +1490,7 @@
         <v>6</v>
       </c>
       <c r="F40" s="4">
-        <v>24.97201</v>
+        <v>24.972010000000001</v>
       </c>
       <c r="G40" s="4">
         <v>121.54722</v>
@@ -2104,13 +1510,13 @@
         <v>16.2</v>
       </c>
       <c r="D41" s="4">
-        <v>289.3248</v>
+        <v>289.32479999999998</v>
       </c>
       <c r="E41" s="4">
         <v>5</v>
       </c>
       <c r="F41" s="4">
-        <v>24.98203</v>
+        <v>24.982030000000002</v>
       </c>
       <c r="G41" s="4">
         <v>121.54348</v>
@@ -2130,13 +1536,13 @@
         <v>13.6</v>
       </c>
       <c r="D42" s="4">
-        <v>4082.015</v>
+        <v>4082.0149999999999</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
       </c>
       <c r="F42" s="4">
-        <v>24.94155</v>
+        <v>24.941549999999999</v>
       </c>
       <c r="G42" s="4">
         <v>121.50381</v>
@@ -2162,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="F43" s="4">
-        <v>24.94297</v>
+        <v>24.942969999999999</v>
       </c>
       <c r="G43" s="4">
-        <v>121.50342</v>
+        <v>121.50342000000001</v>
       </c>
       <c r="H43" s="1">
         <v>18.2</v>
@@ -2182,19 +1588,19 @@
         <v>36.1</v>
       </c>
       <c r="D44" s="4">
-        <v>519.4617</v>
+        <v>519.46169999999995</v>
       </c>
       <c r="E44" s="4">
         <v>5</v>
       </c>
       <c r="F44" s="4">
-        <v>24.96305</v>
+        <v>24.963049999999999</v>
       </c>
       <c r="G44" s="4">
-        <v>121.53758</v>
+        <v>121.53758000000001</v>
       </c>
       <c r="H44" s="1">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2208,13 +1614,13 @@
         <v>34.4</v>
       </c>
       <c r="D45" s="4">
-        <v>512.7871</v>
+        <v>512.78710000000001</v>
       </c>
       <c r="E45" s="4">
         <v>6</v>
       </c>
       <c r="F45" s="4">
-        <v>24.98748</v>
+        <v>24.987480000000001</v>
       </c>
       <c r="G45" s="4">
         <v>121.54301</v>
@@ -2234,13 +1640,13 @@
         <v>2.7</v>
       </c>
       <c r="D46" s="4">
-        <v>533.4762</v>
+        <v>533.47619999999995</v>
       </c>
       <c r="E46" s="4">
         <v>4</v>
       </c>
       <c r="F46" s="4">
-        <v>24.97445</v>
+        <v>24.974450000000001</v>
       </c>
       <c r="G46" s="4">
         <v>121.54765</v>
@@ -2272,7 +1678,7 @@
         <v>121.54494</v>
       </c>
       <c r="H47" s="1">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2286,13 +1692,13 @@
         <v>21.7</v>
       </c>
       <c r="D48" s="4">
-        <v>463.9623</v>
+        <v>463.96230000000003</v>
       </c>
       <c r="E48" s="4">
         <v>9</v>
       </c>
       <c r="F48" s="4">
-        <v>24.9703</v>
+        <v>24.970300000000002</v>
       </c>
       <c r="G48" s="4">
         <v>121.54458</v>
@@ -2312,13 +1718,13 @@
         <v>35.9</v>
       </c>
       <c r="D49" s="4">
-        <v>640.7391</v>
+        <v>640.73910000000001</v>
       </c>
       <c r="E49" s="4">
         <v>3</v>
       </c>
       <c r="F49" s="4">
-        <v>24.97563</v>
+        <v>24.975629999999999</v>
       </c>
       <c r="G49" s="4">
         <v>121.53715</v>
@@ -2338,13 +1744,13 @@
         <v>24.2</v>
       </c>
       <c r="D50" s="4">
-        <v>4605.749</v>
+        <v>4605.7489999999998</v>
       </c>
       <c r="E50" s="4">
         <v>0</v>
       </c>
       <c r="F50" s="4">
-        <v>24.94684</v>
+        <v>24.946840000000002</v>
       </c>
       <c r="G50" s="4">
         <v>121.49578</v>
@@ -2364,13 +1770,13 @@
         <v>29.4</v>
       </c>
       <c r="D51" s="4">
-        <v>4510.359</v>
+        <v>4510.3590000000004</v>
       </c>
       <c r="E51" s="4">
         <v>1</v>
       </c>
       <c r="F51" s="4">
-        <v>24.94925</v>
+        <v>24.949249999999999</v>
       </c>
       <c r="G51" s="4">
         <v>121.49542</v>
@@ -2390,7 +1796,7 @@
         <v>21.7</v>
       </c>
       <c r="D52" s="4">
-        <v>512.5487</v>
+        <v>512.54870000000005</v>
       </c>
       <c r="E52" s="4">
         <v>4</v>
@@ -2416,7 +1822,7 @@
         <v>31.3</v>
       </c>
       <c r="D53" s="4">
-        <v>1758.406</v>
+        <v>1758.4059999999999</v>
       </c>
       <c r="E53" s="4">
         <v>1</v>
@@ -2468,13 +1874,13 @@
         <v>13.3</v>
       </c>
       <c r="D55" s="4">
-        <v>492.2313</v>
+        <v>492.23129999999998</v>
       </c>
       <c r="E55" s="4">
         <v>5</v>
       </c>
       <c r="F55" s="4">
-        <v>24.96515</v>
+        <v>24.965150000000001</v>
       </c>
       <c r="G55" s="4">
         <v>121.53737</v>
@@ -2491,16 +1897,16 @@
         <v>2013.0833333</v>
       </c>
       <c r="C56" s="4">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D56" s="4">
-        <v>289.3248</v>
+        <v>289.32479999999998</v>
       </c>
       <c r="E56" s="4">
         <v>5</v>
       </c>
       <c r="F56" s="4">
-        <v>24.98203</v>
+        <v>24.982030000000002</v>
       </c>
       <c r="G56" s="4">
         <v>121.54348</v>
@@ -2520,13 +1926,13 @@
         <v>31.7</v>
       </c>
       <c r="D57" s="4">
-        <v>1160.632</v>
+        <v>1160.6320000000001</v>
       </c>
       <c r="E57" s="4">
         <v>0</v>
       </c>
       <c r="F57" s="4">
-        <v>24.94968</v>
+        <v>24.949680000000001</v>
       </c>
       <c r="G57" s="4">
         <v>121.53009</v>
@@ -2546,16 +1952,16 @@
         <v>33.6</v>
       </c>
       <c r="D58" s="4">
-        <v>371.2495</v>
+        <v>371.24950000000001</v>
       </c>
       <c r="E58" s="4">
         <v>8</v>
       </c>
       <c r="F58" s="4">
-        <v>24.97254</v>
+        <v>24.972539999999999</v>
       </c>
       <c r="G58" s="4">
-        <v>121.54059</v>
+        <v>121.54058999999999</v>
       </c>
       <c r="H58" s="1">
         <v>41.9</v>
@@ -2572,13 +1978,13 @@
         <v>3.5</v>
       </c>
       <c r="D59" s="4">
-        <v>56.47425</v>
+        <v>56.474249999999998</v>
       </c>
       <c r="E59" s="4">
         <v>7</v>
       </c>
       <c r="F59" s="4">
-        <v>24.95744</v>
+        <v>24.957439999999998</v>
       </c>
       <c r="G59" s="4">
         <v>121.53711</v>
@@ -2598,13 +2004,13 @@
         <v>30.3</v>
       </c>
       <c r="D60" s="4">
-        <v>4510.359</v>
+        <v>4510.3590000000004</v>
       </c>
       <c r="E60" s="4">
         <v>1</v>
       </c>
       <c r="F60" s="4">
-        <v>24.94925</v>
+        <v>24.949249999999999</v>
       </c>
       <c r="G60" s="4">
         <v>121.49542</v>
@@ -2650,16 +2056,16 @@
         <v>11</v>
       </c>
       <c r="D62" s="4">
-        <v>1931.207</v>
+        <v>1931.2070000000001</v>
       </c>
       <c r="E62" s="4">
         <v>2</v>
       </c>
       <c r="F62" s="4">
-        <v>24.96365</v>
+        <v>24.963650000000001</v>
       </c>
       <c r="G62" s="4">
-        <v>121.51471</v>
+        <v>121.51470999999999</v>
       </c>
       <c r="H62" s="1">
         <v>21.3</v>
@@ -2676,13 +2082,13 @@
         <v>5.3</v>
       </c>
       <c r="D63" s="4">
-        <v>259.6607</v>
+        <v>259.66070000000002</v>
       </c>
       <c r="E63" s="4">
         <v>6</v>
       </c>
       <c r="F63" s="4">
-        <v>24.97585</v>
+        <v>24.975850000000001</v>
       </c>
       <c r="G63" s="4">
         <v>121.54516</v>
@@ -2728,13 +2134,13 @@
         <v>2.6</v>
       </c>
       <c r="D65" s="4">
-        <v>533.4762</v>
+        <v>533.47619999999995</v>
       </c>
       <c r="E65" s="4">
         <v>4</v>
       </c>
       <c r="F65" s="4">
-        <v>24.97445</v>
+        <v>24.974450000000001</v>
       </c>
       <c r="G65" s="4">
         <v>121.54765</v>
@@ -2754,13 +2160,13 @@
         <v>17.5</v>
       </c>
       <c r="D66" s="4">
-        <v>995.7554</v>
+        <v>995.75540000000001</v>
       </c>
       <c r="E66" s="4">
         <v>0</v>
       </c>
       <c r="F66" s="4">
-        <v>24.96305</v>
+        <v>24.963049999999999</v>
       </c>
       <c r="G66" s="4">
         <v>121.54915</v>
@@ -2780,7 +2186,7 @@
         <v>40.1</v>
       </c>
       <c r="D67" s="4">
-        <v>123.7429</v>
+        <v>123.74290000000001</v>
       </c>
       <c r="E67" s="4">
         <v>8</v>
@@ -2806,13 +2212,13 @@
         <v>1</v>
       </c>
       <c r="D68" s="4">
-        <v>193.5845</v>
+        <v>193.58449999999999</v>
       </c>
       <c r="E68" s="4">
         <v>6</v>
       </c>
       <c r="F68" s="4">
-        <v>24.96571</v>
+        <v>24.965710000000001</v>
       </c>
       <c r="G68" s="4">
         <v>121.54089</v>
@@ -2832,16 +2238,16 @@
         <v>8.5</v>
       </c>
       <c r="D69" s="4">
-        <v>104.8101</v>
+        <v>104.81010000000001</v>
       </c>
       <c r="E69" s="4">
         <v>5</v>
       </c>
       <c r="F69" s="4">
-        <v>24.96674</v>
+        <v>24.966740000000001</v>
       </c>
       <c r="G69" s="4">
-        <v>121.54067</v>
+        <v>121.54067000000001</v>
       </c>
       <c r="H69" s="1">
         <v>56.8</v>
@@ -2858,7 +2264,7 @@
         <v>30.4</v>
       </c>
       <c r="D70" s="4">
-        <v>464.223</v>
+        <v>464.22300000000001</v>
       </c>
       <c r="E70" s="4">
         <v>6</v>
@@ -2870,7 +2276,7 @@
         <v>121.53805</v>
       </c>
       <c r="H70" s="1">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2884,13 +2290,13 @@
         <v>12.5</v>
       </c>
       <c r="D71" s="4">
-        <v>561.9845</v>
+        <v>561.98450000000003</v>
       </c>
       <c r="E71" s="4">
         <v>5</v>
       </c>
       <c r="F71" s="4">
-        <v>24.98746</v>
+        <v>24.987459999999999</v>
       </c>
       <c r="G71" s="4">
         <v>121.54391</v>
@@ -2910,13 +2316,13 @@
         <v>6.6</v>
       </c>
       <c r="D72" s="4">
-        <v>90.45606</v>
+        <v>90.456059999999994</v>
       </c>
       <c r="E72" s="4">
         <v>9</v>
       </c>
       <c r="F72" s="4">
-        <v>24.97433</v>
+        <v>24.974329999999998</v>
       </c>
       <c r="G72" s="4">
         <v>121.5431</v>
@@ -2936,19 +2342,19 @@
         <v>35.5</v>
       </c>
       <c r="D73" s="4">
-        <v>640.7391</v>
+        <v>640.73910000000001</v>
       </c>
       <c r="E73" s="4">
         <v>3</v>
       </c>
       <c r="F73" s="4">
-        <v>24.97563</v>
+        <v>24.975629999999999</v>
       </c>
       <c r="G73" s="4">
         <v>121.53715</v>
       </c>
       <c r="H73" s="1">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2962,7 +2368,7 @@
         <v>32.5</v>
       </c>
       <c r="D74" s="4">
-        <v>424.5442</v>
+        <v>424.54419999999999</v>
       </c>
       <c r="E74" s="4">
         <v>8</v>
@@ -2974,7 +2380,7 @@
         <v>121.53913</v>
       </c>
       <c r="H74" s="1">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2988,13 +2394,13 @@
         <v>13.8</v>
       </c>
       <c r="D75" s="4">
-        <v>4082.015</v>
+        <v>4082.0149999999999</v>
       </c>
       <c r="E75" s="4">
         <v>0</v>
       </c>
       <c r="F75" s="4">
-        <v>24.94155</v>
+        <v>24.941549999999999</v>
       </c>
       <c r="G75" s="4">
         <v>121.50381</v>
@@ -3020,7 +2426,7 @@
         <v>10</v>
       </c>
       <c r="F76" s="4">
-        <v>24.98343</v>
+        <v>24.983429999999998</v>
       </c>
       <c r="G76" s="4">
         <v>121.53762</v>
@@ -3040,7 +2446,7 @@
         <v>12.3</v>
       </c>
       <c r="D77" s="4">
-        <v>1360.139</v>
+        <v>1360.1389999999999</v>
       </c>
       <c r="E77" s="4">
         <v>1</v>
@@ -3049,7 +2455,7 @@
         <v>24.95204</v>
       </c>
       <c r="G77" s="4">
-        <v>121.54842</v>
+        <v>121.54841999999999</v>
       </c>
       <c r="H77" s="1">
         <v>29.5</v>
@@ -3066,19 +2472,19 @@
         <v>35.9</v>
       </c>
       <c r="D78" s="4">
-        <v>616.4004</v>
+        <v>616.40039999999999</v>
       </c>
       <c r="E78" s="4">
         <v>3</v>
       </c>
       <c r="F78" s="4">
-        <v>24.97723</v>
+        <v>24.977229999999999</v>
       </c>
       <c r="G78" s="4">
-        <v>121.53767</v>
+        <v>121.53767000000001</v>
       </c>
       <c r="H78" s="1">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3092,7 +2498,7 @@
         <v>20.5</v>
       </c>
       <c r="D79" s="4">
-        <v>2185.128</v>
+        <v>2185.1280000000002</v>
       </c>
       <c r="E79" s="4">
         <v>3</v>
@@ -3115,10 +2521,10 @@
         <v>2012.9166667</v>
       </c>
       <c r="C80" s="4">
-        <v>38.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="D80" s="4">
-        <v>552.4371</v>
+        <v>552.43709999999999</v>
       </c>
       <c r="E80" s="4">
         <v>2</v>
@@ -3150,10 +2556,10 @@
         <v>1</v>
       </c>
       <c r="F81" s="4">
-        <v>24.95182</v>
+        <v>24.951820000000001</v>
       </c>
       <c r="G81" s="4">
-        <v>121.54887</v>
+        <v>121.54886999999999</v>
       </c>
       <c r="H81" s="1">
         <v>26.5</v>
@@ -3170,19 +2576,19 @@
         <v>11.8</v>
       </c>
       <c r="D82" s="4">
-        <v>533.4762</v>
+        <v>533.47619999999995</v>
       </c>
       <c r="E82" s="4">
         <v>4</v>
       </c>
       <c r="F82" s="4">
-        <v>24.97445</v>
+        <v>24.974450000000001</v>
       </c>
       <c r="G82" s="4">
         <v>121.54765</v>
       </c>
       <c r="H82" s="1">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3196,19 +2602,19 @@
         <v>30.8</v>
       </c>
       <c r="D83" s="4">
-        <v>377.7956</v>
+        <v>377.79559999999998</v>
       </c>
       <c r="E83" s="4">
         <v>6</v>
       </c>
       <c r="F83" s="4">
-        <v>24.96427</v>
+        <v>24.964269999999999</v>
       </c>
       <c r="G83" s="4">
-        <v>121.53964</v>
+        <v>121.53964000000001</v>
       </c>
       <c r="H83" s="1">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3222,7 +2628,7 @@
         <v>13.2</v>
       </c>
       <c r="D84" s="4">
-        <v>150.9347</v>
+        <v>150.93469999999999</v>
       </c>
       <c r="E84" s="4">
         <v>7</v>
@@ -3248,16 +2654,16 @@
         <v>25.3</v>
       </c>
       <c r="D85" s="4">
-        <v>2707.392</v>
+        <v>2707.3919999999998</v>
       </c>
       <c r="E85" s="4">
         <v>3</v>
       </c>
       <c r="F85" s="4">
-        <v>24.96056</v>
+        <v>24.960560000000001</v>
       </c>
       <c r="G85" s="4">
-        <v>121.50831</v>
+        <v>121.50830999999999</v>
       </c>
       <c r="H85" s="1">
         <v>17.7</v>
@@ -3274,7 +2680,7 @@
         <v>15.1</v>
       </c>
       <c r="D86" s="4">
-        <v>383.2805</v>
+        <v>383.28050000000002</v>
       </c>
       <c r="E86" s="4">
         <v>7</v>
@@ -3300,13 +2706,13 @@
         <v>0</v>
       </c>
       <c r="D87" s="4">
-        <v>338.9679</v>
+        <v>338.96789999999999</v>
       </c>
       <c r="E87" s="4">
         <v>9</v>
       </c>
       <c r="F87" s="4">
-        <v>24.96853</v>
+        <v>24.968530000000001</v>
       </c>
       <c r="G87" s="4">
         <v>121.54413</v>
@@ -3335,7 +2741,7 @@
         <v>24.9512</v>
       </c>
       <c r="G88" s="4">
-        <v>121.549</v>
+        <v>121.54900000000001</v>
       </c>
       <c r="H88" s="1">
         <v>27</v>
@@ -3349,7 +2755,7 @@
         <v>2013.5833333</v>
       </c>
       <c r="C89" s="4">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D89" s="4">
         <v>4066.587</v>
@@ -3358,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="F89" s="4">
-        <v>24.94297</v>
+        <v>24.942969999999999</v>
       </c>
       <c r="G89" s="4">
-        <v>121.50342</v>
+        <v>121.50342000000001</v>
       </c>
       <c r="H89" s="1">
         <v>18.3</v>
@@ -3404,7 +2810,7 @@
         <v>23</v>
       </c>
       <c r="D91" s="4">
-        <v>3947.945</v>
+        <v>3947.9450000000002</v>
       </c>
       <c r="E91" s="4">
         <v>0</v>
@@ -3430,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="D92" s="4">
-        <v>274.0144</v>
+        <v>274.01440000000002</v>
       </c>
       <c r="E92" s="4">
         <v>1</v>
       </c>
       <c r="F92" s="4">
-        <v>24.9748</v>
+        <v>24.974799999999998</v>
       </c>
       <c r="G92" s="4">
         <v>121.53059</v>
@@ -3456,16 +2862,16 @@
         <v>9.1</v>
       </c>
       <c r="D93" s="4">
-        <v>1402.016</v>
+        <v>1402.0160000000001</v>
       </c>
       <c r="E93" s="4">
         <v>0</v>
       </c>
       <c r="F93" s="4">
-        <v>24.98569</v>
+        <v>24.985690000000002</v>
       </c>
       <c r="G93" s="4">
-        <v>121.5276</v>
+        <v>121.52760000000001</v>
       </c>
       <c r="H93" s="1">
         <v>43.2</v>
@@ -3488,10 +2894,10 @@
         <v>4</v>
       </c>
       <c r="F94" s="4">
-        <v>24.96108</v>
+        <v>24.961079999999999</v>
       </c>
       <c r="G94" s="4">
-        <v>121.51046</v>
+        <v>121.51045999999999</v>
       </c>
       <c r="H94" s="1">
         <v>21.8</v>
@@ -3514,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="F95" s="4">
-        <v>24.9492</v>
+        <v>24.949200000000001</v>
       </c>
       <c r="G95" s="4">
         <v>121.53076</v>
       </c>
       <c r="H95" s="1">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3534,7 +2940,7 @@
         <v>40.9</v>
       </c>
       <c r="D96" s="4">
-        <v>167.5989</v>
+        <v>167.59889999999999</v>
       </c>
       <c r="E96" s="4">
         <v>5</v>
@@ -3560,16 +2966,16 @@
         <v>8</v>
       </c>
       <c r="D97" s="4">
-        <v>104.8101</v>
+        <v>104.81010000000001</v>
       </c>
       <c r="E97" s="4">
         <v>5</v>
       </c>
       <c r="F97" s="4">
-        <v>24.96674</v>
+        <v>24.966740000000001</v>
       </c>
       <c r="G97" s="4">
-        <v>121.54067</v>
+        <v>121.54067000000001</v>
       </c>
       <c r="H97" s="1">
         <v>51.8</v>
@@ -3586,13 +2992,13 @@
         <v>6.4</v>
       </c>
       <c r="D98" s="4">
-        <v>90.45606</v>
+        <v>90.456059999999994</v>
       </c>
       <c r="E98" s="4">
         <v>9</v>
       </c>
       <c r="F98" s="4">
-        <v>24.97433</v>
+        <v>24.974329999999998</v>
       </c>
       <c r="G98" s="4">
         <v>121.5431</v>
@@ -3612,13 +3018,13 @@
         <v>28.4</v>
       </c>
       <c r="D99" s="4">
-        <v>617.4424</v>
+        <v>617.44240000000002</v>
       </c>
       <c r="E99" s="4">
         <v>3</v>
       </c>
       <c r="F99" s="4">
-        <v>24.97746</v>
+        <v>24.977460000000001</v>
       </c>
       <c r="G99" s="4">
         <v>121.53299</v>
@@ -3635,16 +3041,16 @@
         <v>2013.4166667</v>
       </c>
       <c r="C100" s="4">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D100" s="4">
-        <v>289.3248</v>
+        <v>289.32479999999998</v>
       </c>
       <c r="E100" s="4">
         <v>5</v>
       </c>
       <c r="F100" s="4">
-        <v>24.98203</v>
+        <v>24.982030000000002</v>
       </c>
       <c r="G100" s="4">
         <v>121.54348</v>
@@ -3664,13 +3070,13 @@
         <v>6.4</v>
       </c>
       <c r="D101" s="4">
-        <v>90.45606</v>
+        <v>90.456059999999994</v>
       </c>
       <c r="E101" s="4">
         <v>9</v>
       </c>
       <c r="F101" s="4">
-        <v>24.97433</v>
+        <v>24.974329999999998</v>
       </c>
       <c r="G101" s="4">
         <v>121.5431</v>
@@ -3690,19 +3096,19 @@
         <v>17.5</v>
       </c>
       <c r="D102" s="4">
-        <v>964.7496</v>
+        <v>964.74959999999999</v>
       </c>
       <c r="E102" s="4">
         <v>4</v>
       </c>
       <c r="F102" s="4">
-        <v>24.98872</v>
+        <v>24.988720000000001</v>
       </c>
       <c r="G102" s="4">
         <v>121.53411</v>
       </c>
       <c r="H102" s="1">
-        <v>38.2</v>
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3716,16 +3122,16 @@
         <v>12.7</v>
       </c>
       <c r="D103" s="4">
-        <v>170.1289</v>
+        <v>170.12889999999999</v>
       </c>
       <c r="E103" s="4">
         <v>1</v>
       </c>
       <c r="F103" s="4">
-        <v>24.97371</v>
+        <v>24.973710000000001</v>
       </c>
       <c r="G103" s="4">
-        <v>121.52984</v>
+        <v>121.52983999999999</v>
       </c>
       <c r="H103" s="1">
         <v>32.9</v>
@@ -3739,16 +3145,16 @@
         <v>2013.0833333</v>
       </c>
       <c r="C104" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D104" s="4">
-        <v>193.5845</v>
+        <v>193.58449999999999</v>
       </c>
       <c r="E104" s="4">
         <v>6</v>
       </c>
       <c r="F104" s="4">
-        <v>24.96571</v>
+        <v>24.965710000000001</v>
       </c>
       <c r="G104" s="4">
         <v>121.54089</v>
@@ -3777,7 +3183,7 @@
         <v>24.95618</v>
       </c>
       <c r="G105" s="4">
-        <v>121.53844</v>
+        <v>121.53843999999999</v>
       </c>
       <c r="H105" s="1">
         <v>45.7</v>
@@ -3791,16 +3197,16 @@
         <v>2012.6666667</v>
       </c>
       <c r="C106" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="D106" s="4">
-        <v>392.4459</v>
+        <v>392.44589999999999</v>
       </c>
       <c r="E106" s="4">
         <v>6</v>
       </c>
       <c r="F106" s="4">
-        <v>24.96398</v>
+        <v>24.963979999999999</v>
       </c>
       <c r="G106" s="4">
         <v>121.5425</v>
@@ -3820,13 +3226,13 @@
         <v>0</v>
       </c>
       <c r="D107" s="4">
-        <v>292.9978</v>
+        <v>292.99779999999998</v>
       </c>
       <c r="E107" s="4">
         <v>6</v>
       </c>
       <c r="F107" s="4">
-        <v>24.97744</v>
+        <v>24.977440000000001</v>
       </c>
       <c r="G107" s="4">
         <v>121.54458</v>
@@ -3852,7 +3258,7 @@
         <v>8</v>
       </c>
       <c r="F108" s="4">
-        <v>24.97707</v>
+        <v>24.977070000000001</v>
       </c>
       <c r="G108" s="4">
         <v>121.54308</v>
@@ -3872,7 +3278,7 @@
         <v>12.2</v>
       </c>
       <c r="D109" s="4">
-        <v>1360.139</v>
+        <v>1360.1389999999999</v>
       </c>
       <c r="E109" s="4">
         <v>1</v>
@@ -3881,7 +3287,7 @@
         <v>24.95204</v>
       </c>
       <c r="G109" s="4">
-        <v>121.54842</v>
+        <v>121.54841999999999</v>
       </c>
       <c r="H109" s="1">
         <v>26.6</v>
@@ -3898,7 +3304,7 @@
         <v>31.4</v>
       </c>
       <c r="D110" s="4">
-        <v>592.5006</v>
+        <v>592.50059999999996</v>
       </c>
       <c r="E110" s="4">
         <v>2</v>
@@ -3907,7 +3313,7 @@
         <v>24.9726</v>
       </c>
       <c r="G110" s="4">
-        <v>121.53561</v>
+        <v>121.53561000000001</v>
       </c>
       <c r="H110" s="1">
         <v>34.1</v>
@@ -3924,13 +3330,13 @@
         <v>4</v>
       </c>
       <c r="D111" s="4">
-        <v>2147.376</v>
+        <v>2147.3760000000002</v>
       </c>
       <c r="E111" s="4">
         <v>3</v>
       </c>
       <c r="F111" s="4">
-        <v>24.96299</v>
+        <v>24.962990000000001</v>
       </c>
       <c r="G111" s="4">
         <v>121.51284</v>
@@ -3950,16 +3356,16 @@
         <v>8.1</v>
       </c>
       <c r="D112" s="4">
-        <v>104.8101</v>
+        <v>104.81010000000001</v>
       </c>
       <c r="E112" s="4">
         <v>5</v>
       </c>
       <c r="F112" s="4">
-        <v>24.96674</v>
+        <v>24.966740000000001</v>
       </c>
       <c r="G112" s="4">
-        <v>121.54067</v>
+        <v>121.54067000000001</v>
       </c>
       <c r="H112" s="1">
         <v>51.6</v>
@@ -3973,7 +3379,7 @@
         <v>2013.5833333</v>
       </c>
       <c r="C113" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="D113" s="4">
         <v>196.6172</v>
@@ -3985,7 +3391,7 @@
         <v>24.97701</v>
       </c>
       <c r="G113" s="4">
-        <v>121.54224</v>
+        <v>121.54224000000001</v>
       </c>
       <c r="H113" s="1">
         <v>39.4</v>
@@ -4002,16 +3408,16 @@
         <v>9.9</v>
       </c>
       <c r="D114" s="4">
-        <v>2102.427</v>
+        <v>2102.4270000000001</v>
       </c>
       <c r="E114" s="4">
         <v>3</v>
       </c>
       <c r="F114" s="4">
-        <v>24.96044</v>
+        <v>24.960439999999998</v>
       </c>
       <c r="G114" s="4">
-        <v>121.51462</v>
+        <v>121.51461999999999</v>
       </c>
       <c r="H114" s="1">
         <v>23.1</v>
@@ -4028,7 +3434,7 @@
         <v>14.8</v>
       </c>
       <c r="D115" s="4">
-        <v>393.2606</v>
+        <v>393.26060000000001</v>
       </c>
       <c r="E115" s="4">
         <v>6</v>
@@ -4037,7 +3443,7 @@
         <v>24.96172</v>
       </c>
       <c r="G115" s="4">
-        <v>121.53812</v>
+        <v>121.53812000000001</v>
       </c>
       <c r="H115" s="1">
         <v>7.6</v>
@@ -4060,7 +3466,7 @@
         <v>8</v>
       </c>
       <c r="F116" s="4">
-        <v>24.98155</v>
+        <v>24.981549999999999</v>
       </c>
       <c r="G116" s="4">
         <v>121.54142</v>
@@ -4080,16 +3486,16 @@
         <v>20.6</v>
       </c>
       <c r="D117" s="4">
-        <v>737.9161</v>
+        <v>737.91610000000003</v>
       </c>
       <c r="E117" s="4">
         <v>2</v>
       </c>
       <c r="F117" s="4">
-        <v>24.98092</v>
+        <v>24.980920000000001</v>
       </c>
       <c r="G117" s="4">
-        <v>121.54739</v>
+        <v>121.54738999999999</v>
       </c>
       <c r="H117" s="1">
         <v>46.4</v>
@@ -4106,13 +3512,13 @@
         <v>30.9</v>
       </c>
       <c r="D118" s="4">
-        <v>6396.283</v>
+        <v>6396.2830000000004</v>
       </c>
       <c r="E118" s="4">
         <v>1</v>
       </c>
       <c r="F118" s="4">
-        <v>24.94375</v>
+        <v>24.943750000000001</v>
       </c>
       <c r="G118" s="4">
         <v>121.47883</v>
@@ -4132,16 +3538,16 @@
         <v>13.6</v>
       </c>
       <c r="D119" s="4">
-        <v>4197.349</v>
+        <v>4197.3490000000002</v>
       </c>
       <c r="E119" s="4">
         <v>0</v>
       </c>
       <c r="F119" s="4">
-        <v>24.93885</v>
+        <v>24.938849999999999</v>
       </c>
       <c r="G119" s="4">
-        <v>121.50383</v>
+        <v>121.50382999999999</v>
       </c>
       <c r="H119" s="1">
         <v>13</v>
@@ -4181,16 +3587,16 @@
         <v>2013.5</v>
       </c>
       <c r="C121" s="4">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D121" s="4">
-        <v>289.3248</v>
+        <v>289.32479999999998</v>
       </c>
       <c r="E121" s="4">
         <v>5</v>
       </c>
       <c r="F121" s="4">
-        <v>24.98203</v>
+        <v>24.982030000000002</v>
       </c>
       <c r="G121" s="4">
         <v>121.54348</v>
@@ -4210,13 +3616,13 @@
         <v>13.3</v>
       </c>
       <c r="D122" s="4">
-        <v>492.2313</v>
+        <v>492.23129999999998</v>
       </c>
       <c r="E122" s="4">
         <v>5</v>
       </c>
       <c r="F122" s="4">
-        <v>24.96515</v>
+        <v>24.965150000000001</v>
       </c>
       <c r="G122" s="4">
         <v>121.53737</v>
@@ -4236,13 +3642,13 @@
         <v>13.6</v>
       </c>
       <c r="D123" s="4">
-        <v>492.2313</v>
+        <v>492.23129999999998</v>
       </c>
       <c r="E123" s="4">
         <v>5</v>
       </c>
       <c r="F123" s="4">
-        <v>24.96515</v>
+        <v>24.965150000000001</v>
       </c>
       <c r="G123" s="4">
         <v>121.53737</v>
@@ -4262,7 +3668,7 @@
         <v>31.5</v>
       </c>
       <c r="D124" s="4">
-        <v>414.9476</v>
+        <v>414.94760000000002</v>
       </c>
       <c r="E124" s="4">
         <v>4</v>
@@ -4288,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="D125" s="4">
-        <v>185.4296</v>
+        <v>185.42959999999999</v>
       </c>
       <c r="E125" s="4">
         <v>0</v>
@@ -4314,13 +3720,13 @@
         <v>9.9</v>
       </c>
       <c r="D126" s="4">
-        <v>279.1726</v>
+        <v>279.17259999999999</v>
       </c>
       <c r="E126" s="4">
         <v>7</v>
       </c>
       <c r="F126" s="4">
-        <v>24.97528</v>
+        <v>24.975280000000001</v>
       </c>
       <c r="G126" s="4">
         <v>121.54541</v>
@@ -4337,16 +3743,16 @@
         <v>2013.1666667</v>
       </c>
       <c r="C127" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D127" s="4">
-        <v>193.5845</v>
+        <v>193.58449999999999</v>
       </c>
       <c r="E127" s="4">
         <v>6</v>
       </c>
       <c r="F127" s="4">
-        <v>24.96571</v>
+        <v>24.965710000000001</v>
       </c>
       <c r="G127" s="4">
         <v>121.54089</v>
@@ -4366,16 +3772,16 @@
         <v>38.6</v>
       </c>
       <c r="D128" s="4">
-        <v>804.6897</v>
+        <v>804.68970000000002</v>
       </c>
       <c r="E128" s="4">
         <v>4</v>
       </c>
       <c r="F128" s="4">
-        <v>24.97838</v>
+        <v>24.978380000000001</v>
       </c>
       <c r="G128" s="4">
-        <v>121.53477</v>
+        <v>121.53476999999999</v>
       </c>
       <c r="H128" s="1">
         <v>62.9</v>
@@ -4392,7 +3798,7 @@
         <v>3.8</v>
       </c>
       <c r="D129" s="4">
-        <v>383.8624</v>
+        <v>383.86239999999998</v>
       </c>
       <c r="E129" s="4">
         <v>5</v>
@@ -4418,13 +3824,13 @@
         <v>41.3</v>
       </c>
       <c r="D130" s="4">
-        <v>124.9912</v>
+        <v>124.99120000000001</v>
       </c>
       <c r="E130" s="4">
         <v>6</v>
       </c>
       <c r="F130" s="4">
-        <v>24.96674</v>
+        <v>24.966740000000001</v>
       </c>
       <c r="G130" s="4">
         <v>121.54039</v>
@@ -4453,7 +3859,7 @@
         <v>24.98086</v>
       </c>
       <c r="G131" s="4">
-        <v>121.54162</v>
+        <v>121.54161999999999</v>
       </c>
       <c r="H131" s="1">
         <v>41</v>
@@ -4470,13 +3876,13 @@
         <v>29.6</v>
       </c>
       <c r="D132" s="4">
-        <v>535.527</v>
+        <v>535.52700000000004</v>
       </c>
       <c r="E132" s="4">
         <v>8</v>
       </c>
       <c r="F132" s="4">
-        <v>24.98092</v>
+        <v>24.980920000000001</v>
       </c>
       <c r="G132" s="4">
         <v>121.53653</v>
@@ -4496,13 +3902,13 @@
         <v>4</v>
       </c>
       <c r="D133" s="4">
-        <v>2147.376</v>
+        <v>2147.3760000000002</v>
       </c>
       <c r="E133" s="4">
         <v>3</v>
       </c>
       <c r="F133" s="4">
-        <v>24.96299</v>
+        <v>24.962990000000001</v>
       </c>
       <c r="G133" s="4">
         <v>121.51284</v>
@@ -4522,13 +3928,13 @@
         <v>26.6</v>
       </c>
       <c r="D134" s="4">
-        <v>482.7581</v>
+        <v>482.75810000000001</v>
       </c>
       <c r="E134" s="4">
         <v>5</v>
       </c>
       <c r="F134" s="4">
-        <v>24.97433</v>
+        <v>24.974329999999998</v>
       </c>
       <c r="G134" s="4">
         <v>121.53863</v>
@@ -4548,13 +3954,13 @@
         <v>18</v>
       </c>
       <c r="D135" s="4">
-        <v>373.3937</v>
+        <v>373.39370000000002</v>
       </c>
       <c r="E135" s="4">
         <v>8</v>
       </c>
       <c r="F135" s="4">
-        <v>24.9866</v>
+        <v>24.986599999999999</v>
       </c>
       <c r="G135" s="4">
         <v>121.54082</v>
@@ -4574,7 +3980,7 @@
         <v>33.4</v>
       </c>
       <c r="D136" s="4">
-        <v>186.9686</v>
+        <v>186.96860000000001</v>
       </c>
       <c r="E136" s="4">
         <v>6</v>
@@ -4583,7 +3989,7 @@
         <v>24.96604</v>
       </c>
       <c r="G136" s="4">
-        <v>121.54211</v>
+        <v>121.54210999999999</v>
       </c>
       <c r="H136" s="1">
         <v>42.2</v>
@@ -4597,7 +4003,7 @@
         <v>2012.9166667</v>
       </c>
       <c r="C137" s="4">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D137" s="4">
         <v>1009.235</v>
@@ -4606,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="F137" s="4">
-        <v>24.96357</v>
+        <v>24.963570000000001</v>
       </c>
       <c r="G137" s="4">
         <v>121.54951</v>
@@ -4632,7 +4038,7 @@
         <v>5</v>
       </c>
       <c r="F138" s="4">
-        <v>24.97937</v>
+        <v>24.979369999999999</v>
       </c>
       <c r="G138" s="4">
         <v>121.54245</v>
@@ -4652,13 +4058,13 @@
         <v>13.6</v>
       </c>
       <c r="D139" s="4">
-        <v>319.0708</v>
+        <v>319.07080000000002</v>
       </c>
       <c r="E139" s="4">
         <v>6</v>
       </c>
       <c r="F139" s="4">
-        <v>24.96495</v>
+        <v>24.964950000000002</v>
       </c>
       <c r="G139" s="4">
         <v>121.54277</v>
@@ -4678,16 +4084,16 @@
         <v>10</v>
       </c>
       <c r="D140" s="4">
-        <v>942.4664</v>
+        <v>942.46640000000002</v>
       </c>
       <c r="E140" s="4">
         <v>0</v>
       </c>
       <c r="F140" s="4">
-        <v>24.97843</v>
+        <v>24.978429999999999</v>
       </c>
       <c r="G140" s="4">
-        <v>121.52406</v>
+        <v>121.52406000000001</v>
       </c>
       <c r="H140" s="1">
         <v>43.5</v>
@@ -4704,13 +4110,13 @@
         <v>12.9</v>
       </c>
       <c r="D141" s="4">
-        <v>492.2313</v>
+        <v>492.23129999999998</v>
       </c>
       <c r="E141" s="4">
         <v>5</v>
       </c>
       <c r="F141" s="4">
-        <v>24.96515</v>
+        <v>24.965150000000001</v>
       </c>
       <c r="G141" s="4">
         <v>121.53737</v>
@@ -4730,13 +4136,13 @@
         <v>16.2</v>
       </c>
       <c r="D142" s="4">
-        <v>289.3248</v>
+        <v>289.32479999999998</v>
       </c>
       <c r="E142" s="4">
         <v>5</v>
       </c>
       <c r="F142" s="4">
-        <v>24.98203</v>
+        <v>24.982030000000002</v>
       </c>
       <c r="G142" s="4">
         <v>121.54348</v>
@@ -4753,7 +4159,7 @@
         <v>2013.3333333</v>
       </c>
       <c r="C143" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D143" s="4">
         <v>1559.827</v>
@@ -4765,7 +4171,7 @@
         <v>24.97213</v>
       </c>
       <c r="G143" s="4">
-        <v>121.51627</v>
+        <v>121.51627000000001</v>
       </c>
       <c r="H143" s="1">
         <v>28.9</v>
@@ -4782,7 +4188,7 @@
         <v>19.8</v>
       </c>
       <c r="D144" s="4">
-        <v>640.6071</v>
+        <v>640.60709999999995</v>
       </c>
       <c r="E144" s="4">
         <v>5</v>
@@ -4808,13 +4214,13 @@
         <v>13.6</v>
       </c>
       <c r="D145" s="4">
-        <v>492.2313</v>
+        <v>492.23129999999998</v>
       </c>
       <c r="E145" s="4">
         <v>5</v>
       </c>
       <c r="F145" s="4">
-        <v>24.96515</v>
+        <v>24.965150000000001</v>
       </c>
       <c r="G145" s="4">
         <v>121.53737</v>
@@ -4834,7 +4240,7 @@
         <v>11.9</v>
       </c>
       <c r="D146" s="4">
-        <v>1360.139</v>
+        <v>1360.1389999999999</v>
       </c>
       <c r="E146" s="4">
         <v>1</v>
@@ -4843,7 +4249,7 @@
         <v>24.95204</v>
       </c>
       <c r="G146" s="4">
-        <v>121.54842</v>
+        <v>121.54841999999999</v>
       </c>
       <c r="H146" s="1">
         <v>28.4</v>
@@ -4860,16 +4266,16 @@
         <v>2.1</v>
       </c>
       <c r="D147" s="4">
-        <v>451.2438</v>
+        <v>451.24380000000002</v>
       </c>
       <c r="E147" s="4">
         <v>5</v>
       </c>
       <c r="F147" s="4">
-        <v>24.97563</v>
+        <v>24.975629999999999</v>
       </c>
       <c r="G147" s="4">
-        <v>121.54694</v>
+        <v>121.54694000000001</v>
       </c>
       <c r="H147" s="1">
         <v>45.5</v>
@@ -4886,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="D148" s="4">
-        <v>185.4296</v>
+        <v>185.42959999999999</v>
       </c>
       <c r="E148" s="4">
         <v>0</v>
@@ -4912,7 +4318,7 @@
         <v>3.2</v>
       </c>
       <c r="D149" s="4">
-        <v>489.8821</v>
+        <v>489.88209999999998</v>
       </c>
       <c r="E149" s="4">
         <v>8</v>
@@ -4935,7 +4341,7 @@
         <v>2013.5</v>
       </c>
       <c r="C150" s="4">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D150" s="4">
         <v>3780.59</v>
@@ -4944,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="F150" s="4">
-        <v>24.93293</v>
+        <v>24.932929999999999</v>
       </c>
       <c r="G150" s="4">
         <v>121.51203</v>
@@ -4970,13 +4376,13 @@
         <v>8</v>
       </c>
       <c r="F151" s="4">
-        <v>24.97349</v>
+        <v>24.973490000000002</v>
       </c>
       <c r="G151" s="4">
         <v>121.54245</v>
       </c>
       <c r="H151" s="1">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4987,7 +4393,7 @@
         <v>2013.25</v>
       </c>
       <c r="C152" s="4">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="D152" s="4">
         <v>170.7311</v>
@@ -4996,10 +4402,10 @@
         <v>7</v>
       </c>
       <c r="F152" s="4">
-        <v>24.96719</v>
+        <v>24.967189999999999</v>
       </c>
       <c r="G152" s="4">
-        <v>121.54269</v>
+        <v>121.54268999999999</v>
       </c>
       <c r="H152" s="1">
         <v>48.5</v>
@@ -5013,16 +4419,16 @@
         <v>2013.5</v>
       </c>
       <c r="C153" s="4">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D153" s="4">
-        <v>387.7721</v>
+        <v>387.77210000000002</v>
       </c>
       <c r="E153" s="4">
         <v>9</v>
       </c>
       <c r="F153" s="4">
-        <v>24.98118</v>
+        <v>24.981179999999998</v>
       </c>
       <c r="G153" s="4">
         <v>121.53788</v>
@@ -5042,7 +4448,7 @@
         <v>12</v>
       </c>
       <c r="D154" s="4">
-        <v>1360.139</v>
+        <v>1360.1389999999999</v>
       </c>
       <c r="E154" s="4">
         <v>1</v>
@@ -5051,7 +4457,7 @@
         <v>24.95204</v>
       </c>
       <c r="G154" s="4">
-        <v>121.54842</v>
+        <v>121.54841999999999</v>
       </c>
       <c r="H154" s="1">
         <v>28.9</v>
@@ -5068,13 +4474,13 @@
         <v>6.5</v>
       </c>
       <c r="D155" s="4">
-        <v>376.1709</v>
+        <v>376.17090000000002</v>
       </c>
       <c r="E155" s="4">
         <v>6</v>
       </c>
       <c r="F155" s="4">
-        <v>24.95418</v>
+        <v>24.954180000000001</v>
       </c>
       <c r="G155" s="4">
         <v>121.53713</v>
@@ -5091,7 +4497,7 @@
         <v>2013.5</v>
       </c>
       <c r="C156" s="4">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D156" s="4">
         <v>4066.587</v>
@@ -5100,10 +4506,10 @@
         <v>0</v>
       </c>
       <c r="F156" s="4">
-        <v>24.94297</v>
+        <v>24.942969999999999</v>
       </c>
       <c r="G156" s="4">
-        <v>121.50342</v>
+        <v>121.50342000000001</v>
       </c>
       <c r="H156" s="1">
         <v>20.7</v>
@@ -5120,13 +4526,13 @@
         <v>13.8</v>
       </c>
       <c r="D157" s="4">
-        <v>4082.015</v>
+        <v>4082.0149999999999</v>
       </c>
       <c r="E157" s="4">
         <v>0</v>
       </c>
       <c r="F157" s="4">
-        <v>24.94155</v>
+        <v>24.941549999999999</v>
       </c>
       <c r="G157" s="4">
         <v>121.50381</v>
@@ -5152,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="F158" s="4">
-        <v>24.94883</v>
+        <v>24.948830000000001</v>
       </c>
       <c r="G158" s="4">
         <v>121.52954</v>
@@ -5169,16 +4575,16 @@
         <v>2013.25</v>
       </c>
       <c r="C159" s="4">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D159" s="4">
-        <v>815.9314</v>
+        <v>815.93140000000005</v>
       </c>
       <c r="E159" s="4">
         <v>4</v>
       </c>
       <c r="F159" s="4">
-        <v>24.97886</v>
+        <v>24.978860000000001</v>
       </c>
       <c r="G159" s="4">
         <v>121.53464</v>
@@ -5204,7 +4610,7 @@
         <v>5</v>
       </c>
       <c r="F160" s="4">
-        <v>24.97937</v>
+        <v>24.979369999999999</v>
       </c>
       <c r="G160" s="4">
         <v>121.54245</v>
@@ -5224,13 +4630,13 @@
         <v>15.5</v>
       </c>
       <c r="D161" s="4">
-        <v>815.9314</v>
+        <v>815.93140000000005</v>
       </c>
       <c r="E161" s="4">
         <v>4</v>
       </c>
       <c r="F161" s="4">
-        <v>24.97886</v>
+        <v>24.978860000000001</v>
       </c>
       <c r="G161" s="4">
         <v>121.53464</v>
@@ -5250,13 +4656,13 @@
         <v>3.5</v>
       </c>
       <c r="D162" s="4">
-        <v>49.66105</v>
+        <v>49.661050000000003</v>
       </c>
       <c r="E162" s="4">
         <v>8</v>
       </c>
       <c r="F162" s="4">
-        <v>24.95836</v>
+        <v>24.958359999999999</v>
       </c>
       <c r="G162" s="4">
         <v>121.53756</v>
@@ -5276,16 +4682,16 @@
         <v>19.2</v>
       </c>
       <c r="D163" s="4">
-        <v>616.4004</v>
+        <v>616.40039999999999</v>
       </c>
       <c r="E163" s="4">
         <v>3</v>
       </c>
       <c r="F163" s="4">
-        <v>24.97723</v>
+        <v>24.977229999999999</v>
       </c>
       <c r="G163" s="4">
-        <v>121.53767</v>
+        <v>121.53767000000001</v>
       </c>
       <c r="H163" s="1">
         <v>39.6</v>
@@ -5308,10 +4714,10 @@
         <v>0</v>
       </c>
       <c r="F164" s="4">
-        <v>24.94297</v>
+        <v>24.942969999999999</v>
       </c>
       <c r="G164" s="4">
-        <v>121.50342</v>
+        <v>121.50342000000001</v>
       </c>
       <c r="H164" s="1">
         <v>11.6</v>
@@ -5328,16 +4734,16 @@
         <v>8.5</v>
       </c>
       <c r="D165" s="4">
-        <v>104.8101</v>
+        <v>104.81010000000001</v>
       </c>
       <c r="E165" s="4">
         <v>5</v>
       </c>
       <c r="F165" s="4">
-        <v>24.96674</v>
+        <v>24.966740000000001</v>
       </c>
       <c r="G165" s="4">
-        <v>121.54067</v>
+        <v>121.54067000000001</v>
       </c>
       <c r="H165" s="1">
         <v>55.5</v>
@@ -5354,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="D166" s="4">
-        <v>185.4296</v>
+        <v>185.42959999999999</v>
       </c>
       <c r="E166" s="4">
         <v>0</v>
@@ -5380,13 +4786,13 @@
         <v>13.7</v>
       </c>
       <c r="D167" s="4">
-        <v>1236.564</v>
+        <v>1236.5640000000001</v>
       </c>
       <c r="E167" s="4">
         <v>1</v>
       </c>
       <c r="F167" s="4">
-        <v>24.97694</v>
+        <v>24.976939999999999</v>
       </c>
       <c r="G167" s="4">
         <v>121.55391</v>
@@ -5406,19 +4812,19 @@
         <v>0</v>
       </c>
       <c r="D168" s="4">
-        <v>292.9978</v>
+        <v>292.99779999999998</v>
       </c>
       <c r="E168" s="4">
         <v>6</v>
       </c>
       <c r="F168" s="4">
-        <v>24.97744</v>
+        <v>24.977440000000001</v>
       </c>
       <c r="G168" s="4">
         <v>121.54458</v>
       </c>
       <c r="H168" s="1">
-        <v>73.6</v>
+        <v>73.599999999999994</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5432,13 +4838,13 @@
         <v>28.2</v>
       </c>
       <c r="D169" s="4">
-        <v>330.0854</v>
+        <v>330.08539999999999</v>
       </c>
       <c r="E169" s="4">
         <v>8</v>
       </c>
       <c r="F169" s="4">
-        <v>24.97408</v>
+        <v>24.974080000000001</v>
       </c>
       <c r="G169" s="4">
         <v>121.54011</v>
@@ -5458,13 +4864,13 @@
         <v>27.6</v>
       </c>
       <c r="D170" s="4">
-        <v>515.1122</v>
+        <v>515.11220000000003</v>
       </c>
       <c r="E170" s="4">
         <v>5</v>
       </c>
       <c r="F170" s="4">
-        <v>24.96299</v>
+        <v>24.962990000000001</v>
       </c>
       <c r="G170" s="4">
         <v>121.5432</v>
@@ -5484,7 +4890,7 @@
         <v>8.4</v>
       </c>
       <c r="D171" s="4">
-        <v>1962.628</v>
+        <v>1962.6279999999999</v>
       </c>
       <c r="E171" s="4">
         <v>1</v>
@@ -5510,13 +4916,13 @@
         <v>24</v>
       </c>
       <c r="D172" s="4">
-        <v>4527.687</v>
+        <v>4527.6869999999999</v>
       </c>
       <c r="E172" s="4">
         <v>0</v>
       </c>
       <c r="F172" s="4">
-        <v>24.94741</v>
+        <v>24.947410000000001</v>
       </c>
       <c r="G172" s="4">
         <v>121.49628</v>
@@ -5536,7 +4942,7 @@
         <v>3.6</v>
       </c>
       <c r="D173" s="4">
-        <v>383.8624</v>
+        <v>383.86239999999998</v>
       </c>
       <c r="E173" s="4">
         <v>5</v>
@@ -5562,13 +4968,13 @@
         <v>6.6</v>
       </c>
       <c r="D174" s="4">
-        <v>90.45606</v>
+        <v>90.456059999999994</v>
       </c>
       <c r="E174" s="4">
         <v>9</v>
       </c>
       <c r="F174" s="4">
-        <v>24.97433</v>
+        <v>24.974329999999998</v>
       </c>
       <c r="G174" s="4">
         <v>121.5431</v>
@@ -5588,13 +4994,13 @@
         <v>41.3</v>
       </c>
       <c r="D175" s="4">
-        <v>401.8807</v>
+        <v>401.88069999999999</v>
       </c>
       <c r="E175" s="4">
         <v>4</v>
       </c>
       <c r="F175" s="4">
-        <v>24.98326</v>
+        <v>24.983260000000001</v>
       </c>
       <c r="G175" s="4">
         <v>121.5446</v>
@@ -5620,7 +5026,7 @@
         <v>7</v>
       </c>
       <c r="F176" s="4">
-        <v>24.9805</v>
+        <v>24.980499999999999</v>
       </c>
       <c r="G176" s="4">
         <v>121.53778</v>
@@ -5640,16 +5046,16 @@
         <v>30.2</v>
       </c>
       <c r="D177" s="4">
-        <v>472.1745</v>
+        <v>472.17450000000002</v>
       </c>
       <c r="E177" s="4">
         <v>3</v>
       </c>
       <c r="F177" s="4">
-        <v>24.97005</v>
+        <v>24.970050000000001</v>
       </c>
       <c r="G177" s="4">
-        <v>121.53758</v>
+        <v>121.53758000000001</v>
       </c>
       <c r="H177" s="1">
         <v>36.5</v>
@@ -5666,7 +5072,7 @@
         <v>13.9</v>
       </c>
       <c r="D178" s="4">
-        <v>4573.779</v>
+        <v>4573.7790000000005</v>
       </c>
       <c r="E178" s="4">
         <v>0</v>
@@ -5692,13 +5098,13 @@
         <v>33</v>
       </c>
       <c r="D179" s="4">
-        <v>181.0766</v>
+        <v>181.07660000000001</v>
       </c>
       <c r="E179" s="4">
         <v>9</v>
       </c>
       <c r="F179" s="4">
-        <v>24.97697</v>
+        <v>24.976970000000001</v>
       </c>
       <c r="G179" s="4">
         <v>121.54262</v>
@@ -5718,19 +5124,19 @@
         <v>13.1</v>
       </c>
       <c r="D180" s="4">
-        <v>1144.436</v>
+        <v>1144.4359999999999</v>
       </c>
       <c r="E180" s="4">
         <v>4</v>
       </c>
       <c r="F180" s="4">
-        <v>24.99176</v>
+        <v>24.991759999999999</v>
       </c>
       <c r="G180" s="4">
         <v>121.53456</v>
       </c>
       <c r="H180" s="1">
-        <v>36.7</v>
+        <v>36.700000000000003</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5744,13 +5150,13 @@
         <v>14</v>
       </c>
       <c r="D181" s="4">
-        <v>438.8513</v>
+        <v>438.85129999999998</v>
       </c>
       <c r="E181" s="4">
         <v>1</v>
       </c>
       <c r="F181" s="4">
-        <v>24.97493</v>
+        <v>24.974930000000001</v>
       </c>
       <c r="G181" s="4">
         <v>121.5273</v>
@@ -5770,13 +5176,13 @@
         <v>26.9</v>
       </c>
       <c r="D182" s="4">
-        <v>4449.27</v>
+        <v>4449.2700000000004</v>
       </c>
       <c r="E182" s="4">
         <v>0</v>
       </c>
       <c r="F182" s="4">
-        <v>24.94898</v>
+        <v>24.948979999999999</v>
       </c>
       <c r="G182" s="4">
         <v>121.49621</v>
@@ -5805,7 +5211,7 @@
         <v>24.98489</v>
       </c>
       <c r="G183" s="4">
-        <v>121.54121</v>
+        <v>121.54121000000001</v>
       </c>
       <c r="H183" s="1">
         <v>55.9</v>
@@ -5822,13 +5228,13 @@
         <v>13.5</v>
       </c>
       <c r="D184" s="4">
-        <v>2147.376</v>
+        <v>2147.3760000000002</v>
       </c>
       <c r="E184" s="4">
         <v>3</v>
       </c>
       <c r="F184" s="4">
-        <v>24.96299</v>
+        <v>24.962990000000001</v>
       </c>
       <c r="G184" s="4">
         <v>121.51284</v>
@@ -5848,13 +5254,13 @@
         <v>17</v>
       </c>
       <c r="D185" s="4">
-        <v>4082.015</v>
+        <v>4082.0149999999999</v>
       </c>
       <c r="E185" s="4">
         <v>0</v>
       </c>
       <c r="F185" s="4">
-        <v>24.94155</v>
+        <v>24.941549999999999</v>
       </c>
       <c r="G185" s="4">
         <v>121.50381</v>
@@ -5874,7 +5280,7 @@
         <v>14.1</v>
       </c>
       <c r="D186" s="4">
-        <v>2615.465</v>
+        <v>2615.4650000000001</v>
       </c>
       <c r="E186" s="4">
         <v>0</v>
@@ -5900,16 +5306,16 @@
         <v>31.4</v>
       </c>
       <c r="D187" s="4">
-        <v>1447.286</v>
+        <v>1447.2860000000001</v>
       </c>
       <c r="E187" s="4">
         <v>3</v>
       </c>
       <c r="F187" s="4">
-        <v>24.97285</v>
+        <v>24.972850000000001</v>
       </c>
       <c r="G187" s="4">
-        <v>121.5173</v>
+        <v>121.51730000000001</v>
       </c>
       <c r="H187" s="1">
         <v>21.5</v>
@@ -5926,7 +5332,7 @@
         <v>20.9</v>
       </c>
       <c r="D188" s="4">
-        <v>2185.128</v>
+        <v>2185.1280000000002</v>
       </c>
       <c r="E188" s="4">
         <v>3</v>
@@ -5952,13 +5358,13 @@
         <v>8.9</v>
       </c>
       <c r="D189" s="4">
-        <v>3078.176</v>
+        <v>3078.1759999999999</v>
       </c>
       <c r="E189" s="4">
         <v>0</v>
       </c>
       <c r="F189" s="4">
-        <v>24.95464</v>
+        <v>24.954640000000001</v>
       </c>
       <c r="G189" s="4">
         <v>121.56627</v>
@@ -5975,16 +5381,16 @@
         <v>2012.9166667</v>
       </c>
       <c r="C190" s="4">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="D190" s="4">
-        <v>190.0392</v>
+        <v>190.03919999999999</v>
       </c>
       <c r="E190" s="4">
         <v>8</v>
       </c>
       <c r="F190" s="4">
-        <v>24.97707</v>
+        <v>24.977070000000001</v>
       </c>
       <c r="G190" s="4">
         <v>121.54312</v>
@@ -6010,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="F191" s="4">
-        <v>24.94297</v>
+        <v>24.942969999999999</v>
       </c>
       <c r="G191" s="4">
-        <v>121.50342</v>
+        <v>121.50342000000001</v>
       </c>
       <c r="H191" s="1">
         <v>20.5</v>
@@ -6027,10 +5433,10 @@
         <v>2013.5</v>
       </c>
       <c r="C192" s="4">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="D192" s="4">
-        <v>616.5735</v>
+        <v>616.57349999999997</v>
       </c>
       <c r="E192" s="4">
         <v>8</v>
@@ -6039,7 +5445,7 @@
         <v>24.97945</v>
       </c>
       <c r="G192" s="4">
-        <v>121.53642</v>
+        <v>121.53642000000001</v>
       </c>
       <c r="H192" s="1">
         <v>42.3</v>
@@ -6056,19 +5462,19 @@
         <v>13.2</v>
       </c>
       <c r="D193" s="4">
-        <v>750.0704</v>
+        <v>750.07039999999995</v>
       </c>
       <c r="E193" s="4">
         <v>2</v>
       </c>
       <c r="F193" s="4">
-        <v>24.97371</v>
+        <v>24.973710000000001</v>
       </c>
       <c r="G193" s="4">
         <v>121.54951</v>
       </c>
       <c r="H193" s="1">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6082,13 +5488,13 @@
         <v>43.8</v>
       </c>
       <c r="D194" s="4">
-        <v>57.58945</v>
+        <v>57.589449999999999</v>
       </c>
       <c r="E194" s="4">
         <v>7</v>
       </c>
       <c r="F194" s="4">
-        <v>24.9675</v>
+        <v>24.967500000000001</v>
       </c>
       <c r="G194" s="4">
         <v>121.54069</v>
@@ -6105,10 +5511,10 @@
         <v>2013.4166667</v>
       </c>
       <c r="C195" s="4">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D195" s="4">
-        <v>421.479</v>
+        <v>421.47899999999998</v>
       </c>
       <c r="E195" s="4">
         <v>5</v>
@@ -6140,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F196" s="4">
-        <v>24.93363</v>
+        <v>24.933630000000001</v>
       </c>
       <c r="G196" s="4">
         <v>121.51158</v>
@@ -6160,13 +5566,13 @@
         <v>15.2</v>
       </c>
       <c r="D197" s="4">
-        <v>461.1016</v>
+        <v>461.10160000000002</v>
       </c>
       <c r="E197" s="4">
         <v>5</v>
       </c>
       <c r="F197" s="4">
-        <v>24.95425</v>
+        <v>24.954249999999998</v>
       </c>
       <c r="G197" s="4">
         <v>121.5399</v>
@@ -6192,7 +5598,7 @@
         <v>2</v>
       </c>
       <c r="F198" s="4">
-        <v>24.981</v>
+        <v>24.981000000000002</v>
       </c>
       <c r="G198" s="4">
         <v>121.54713</v>
@@ -6218,7 +5624,7 @@
         <v>8</v>
       </c>
       <c r="F199" s="4">
-        <v>24.96881</v>
+        <v>24.968810000000001</v>
       </c>
       <c r="G199" s="4">
         <v>121.54089</v>
@@ -6244,7 +5650,7 @@
         <v>7</v>
       </c>
       <c r="F200" s="4">
-        <v>24.96628</v>
+        <v>24.966280000000001</v>
       </c>
       <c r="G200" s="4">
         <v>121.54196</v>
@@ -6264,13 +5670,13 @@
         <v>18.2</v>
       </c>
       <c r="D201" s="4">
-        <v>451.6419</v>
+        <v>451.64190000000002</v>
       </c>
       <c r="E201" s="4">
         <v>8</v>
       </c>
       <c r="F201" s="4">
-        <v>24.96945</v>
+        <v>24.969449999999998</v>
       </c>
       <c r="G201" s="4">
         <v>121.5449</v>
@@ -6287,16 +5693,16 @@
         <v>2013.4166667</v>
       </c>
       <c r="C202" s="4">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D202" s="4">
-        <v>995.7554</v>
+        <v>995.75540000000001</v>
       </c>
       <c r="E202" s="4">
         <v>0</v>
       </c>
       <c r="F202" s="4">
-        <v>24.96305</v>
+        <v>24.963049999999999</v>
       </c>
       <c r="G202" s="4">
         <v>121.54915</v>
@@ -6316,13 +5722,13 @@
         <v>13.1</v>
       </c>
       <c r="D203" s="4">
-        <v>561.9845</v>
+        <v>561.98450000000003</v>
       </c>
       <c r="E203" s="4">
         <v>5</v>
       </c>
       <c r="F203" s="4">
-        <v>24.98746</v>
+        <v>24.987459999999999</v>
       </c>
       <c r="G203" s="4">
         <v>121.54391</v>
@@ -6339,10 +5745,10 @@
         <v>2012.9166667</v>
       </c>
       <c r="C204" s="4">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="D204" s="4">
-        <v>642.6985</v>
+        <v>642.69849999999997</v>
       </c>
       <c r="E204" s="4">
         <v>3</v>
@@ -6368,13 +5774,13 @@
         <v>15.6</v>
       </c>
       <c r="D205" s="4">
-        <v>289.3248</v>
+        <v>289.32479999999998</v>
       </c>
       <c r="E205" s="4">
         <v>5</v>
       </c>
       <c r="F205" s="4">
-        <v>24.98203</v>
+        <v>24.982030000000002</v>
       </c>
       <c r="G205" s="4">
         <v>121.54348</v>
@@ -6400,10 +5806,10 @@
         <v>1</v>
       </c>
       <c r="F206" s="4">
-        <v>24.95182</v>
+        <v>24.951820000000001</v>
       </c>
       <c r="G206" s="4">
-        <v>121.54887</v>
+        <v>121.54886999999999</v>
       </c>
       <c r="H206" s="1">
         <v>26.6</v>
@@ -6452,7 +5858,7 @@
         <v>10</v>
       </c>
       <c r="F208" s="4">
-        <v>24.98343</v>
+        <v>24.983429999999998</v>
       </c>
       <c r="G208" s="4">
         <v>121.53762</v>
@@ -6472,7 +5878,7 @@
         <v>38.5</v>
       </c>
       <c r="D209" s="4">
-        <v>665.0636</v>
+        <v>665.06359999999995</v>
       </c>
       <c r="E209" s="4">
         <v>3</v>
@@ -6481,10 +5887,10 @@
         <v>24.97503</v>
       </c>
       <c r="G209" s="4">
-        <v>121.53692</v>
+        <v>121.53691999999999</v>
       </c>
       <c r="H209" s="1">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6498,7 +5904,7 @@
         <v>11.5</v>
       </c>
       <c r="D210" s="4">
-        <v>1360.139</v>
+        <v>1360.1389999999999</v>
       </c>
       <c r="E210" s="4">
         <v>1</v>
@@ -6507,7 +5913,7 @@
         <v>24.95204</v>
       </c>
       <c r="G210" s="4">
-        <v>121.54842</v>
+        <v>121.54841999999999</v>
       </c>
       <c r="H210" s="1">
         <v>26.2</v>
@@ -6521,7 +5927,7 @@
         <v>2012.8333333</v>
       </c>
       <c r="C211" s="4">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="D211" s="4">
         <v>175.6294</v>
@@ -6530,7 +5936,7 @@
         <v>8</v>
       </c>
       <c r="F211" s="4">
-        <v>24.97347</v>
+        <v>24.973469999999999</v>
       </c>
       <c r="G211" s="4">
         <v>121.54271</v>
@@ -6556,7 +5962,7 @@
         <v>5</v>
       </c>
       <c r="F212" s="4">
-        <v>24.97937</v>
+        <v>24.979369999999999</v>
       </c>
       <c r="G212" s="4">
         <v>121.54245</v>
@@ -6576,13 +5982,13 @@
         <v>0</v>
       </c>
       <c r="D213" s="4">
-        <v>274.0144</v>
+        <v>274.01440000000002</v>
       </c>
       <c r="E213" s="4">
         <v>1</v>
       </c>
       <c r="F213" s="4">
-        <v>24.9748</v>
+        <v>24.974799999999998</v>
       </c>
       <c r="G213" s="4">
         <v>121.53059</v>
@@ -6599,7 +6005,7 @@
         <v>2013.3333333</v>
       </c>
       <c r="C214" s="4">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D214" s="4">
         <v>1805.665</v>
@@ -6608,7 +6014,7 @@
         <v>2</v>
       </c>
       <c r="F214" s="4">
-        <v>24.98672</v>
+        <v>24.986719999999998</v>
       </c>
       <c r="G214" s="4">
         <v>121.52091</v>
@@ -6628,13 +6034,13 @@
         <v>6.2</v>
       </c>
       <c r="D215" s="4">
-        <v>90.45606</v>
+        <v>90.456059999999994</v>
       </c>
       <c r="E215" s="4">
         <v>9</v>
       </c>
       <c r="F215" s="4">
-        <v>24.97433</v>
+        <v>24.974329999999998</v>
       </c>
       <c r="G215" s="4">
         <v>121.5431</v>
@@ -6651,7 +6057,7 @@
         <v>2013.5833333</v>
       </c>
       <c r="C216" s="4">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="D216" s="4">
         <v>1783.18</v>
@@ -6660,7 +6066,7 @@
         <v>3</v>
       </c>
       <c r="F216" s="4">
-        <v>24.96731</v>
+        <v>24.967310000000001</v>
       </c>
       <c r="G216" s="4">
         <v>121.51486</v>
@@ -6680,13 +6086,13 @@
         <v>19.2</v>
       </c>
       <c r="D217" s="4">
-        <v>383.7129</v>
+        <v>383.71289999999999</v>
       </c>
       <c r="E217" s="4">
         <v>8</v>
       </c>
       <c r="F217" s="4">
-        <v>24.972</v>
+        <v>24.972000000000001</v>
       </c>
       <c r="G217" s="4">
         <v>121.54477</v>
@@ -6703,22 +6109,22 @@
         <v>2013.25</v>
       </c>
       <c r="C218" s="4">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="D218" s="4">
-        <v>590.9292</v>
+        <v>590.92920000000004</v>
       </c>
       <c r="E218" s="4">
         <v>1</v>
       </c>
       <c r="F218" s="4">
-        <v>24.97153</v>
+        <v>24.971530000000001</v>
       </c>
       <c r="G218" s="4">
         <v>121.53559</v>
       </c>
       <c r="H218" s="1">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6732,19 +6138,19 @@
         <v>28</v>
       </c>
       <c r="D219" s="4">
-        <v>372.6242</v>
+        <v>372.62419999999997</v>
       </c>
       <c r="E219" s="4">
         <v>6</v>
       </c>
       <c r="F219" s="4">
-        <v>24.97838</v>
+        <v>24.978380000000001</v>
       </c>
       <c r="G219" s="4">
         <v>121.54119</v>
       </c>
       <c r="H219" s="1">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6758,13 +6164,13 @@
         <v>13.6</v>
       </c>
       <c r="D220" s="4">
-        <v>492.2313</v>
+        <v>492.23129999999998</v>
       </c>
       <c r="E220" s="4">
         <v>5</v>
       </c>
       <c r="F220" s="4">
-        <v>24.96515</v>
+        <v>24.965150000000001</v>
       </c>
       <c r="G220" s="4">
         <v>121.53737</v>
@@ -6784,19 +6190,19 @@
         <v>29.3</v>
       </c>
       <c r="D221" s="4">
-        <v>529.7771</v>
+        <v>529.77710000000002</v>
       </c>
       <c r="E221" s="4">
         <v>8</v>
       </c>
       <c r="F221" s="4">
-        <v>24.98102</v>
+        <v>24.981020000000001</v>
       </c>
       <c r="G221" s="4">
-        <v>121.53655</v>
+        <v>121.53655000000001</v>
       </c>
       <c r="H221" s="1">
-        <v>40.2</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6807,19 +6213,19 @@
         <v>2013.3333333</v>
       </c>
       <c r="C222" s="4">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="D222" s="4">
-        <v>186.5101</v>
+        <v>186.51009999999999</v>
       </c>
       <c r="E222" s="4">
         <v>9</v>
       </c>
       <c r="F222" s="4">
-        <v>24.97703</v>
+        <v>24.977029999999999</v>
       </c>
       <c r="G222" s="4">
-        <v>121.54265</v>
+        <v>121.54264999999999</v>
       </c>
       <c r="H222" s="1">
         <v>78.3</v>
@@ -6836,16 +6242,16 @@
         <v>9</v>
       </c>
       <c r="D223" s="4">
-        <v>1402.016</v>
+        <v>1402.0160000000001</v>
       </c>
       <c r="E223" s="4">
         <v>0</v>
       </c>
       <c r="F223" s="4">
-        <v>24.98569</v>
+        <v>24.985690000000002</v>
       </c>
       <c r="G223" s="4">
-        <v>121.5276</v>
+        <v>121.52760000000001</v>
       </c>
       <c r="H223" s="1">
         <v>38.5</v>
@@ -6888,16 +6294,16 @@
         <v>9.1</v>
       </c>
       <c r="D225" s="4">
-        <v>1402.016</v>
+        <v>1402.0160000000001</v>
       </c>
       <c r="E225" s="4">
         <v>0</v>
       </c>
       <c r="F225" s="4">
-        <v>24.98569</v>
+        <v>24.985690000000002</v>
       </c>
       <c r="G225" s="4">
-        <v>121.5276</v>
+        <v>121.52760000000001</v>
       </c>
       <c r="H225" s="1">
         <v>42.3</v>
@@ -6914,7 +6320,7 @@
         <v>34.5</v>
       </c>
       <c r="D226" s="4">
-        <v>324.9419</v>
+        <v>324.94189999999998</v>
       </c>
       <c r="E226" s="4">
         <v>6</v>
@@ -6923,7 +6329,7 @@
         <v>24.97814</v>
       </c>
       <c r="G226" s="4">
-        <v>121.5417</v>
+        <v>121.54170000000001</v>
       </c>
       <c r="H226" s="1">
         <v>46</v>
@@ -6937,16 +6343,16 @@
         <v>2013.25</v>
       </c>
       <c r="C227" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D227" s="4">
-        <v>193.5845</v>
+        <v>193.58449999999999</v>
       </c>
       <c r="E227" s="4">
         <v>6</v>
       </c>
       <c r="F227" s="4">
-        <v>24.96571</v>
+        <v>24.965710000000001</v>
       </c>
       <c r="G227" s="4">
         <v>121.54089</v>
@@ -6966,13 +6372,13 @@
         <v>16.5</v>
       </c>
       <c r="D228" s="4">
-        <v>4082.015</v>
+        <v>4082.0149999999999</v>
       </c>
       <c r="E228" s="4">
         <v>0</v>
       </c>
       <c r="F228" s="4">
-        <v>24.94155</v>
+        <v>24.941549999999999</v>
       </c>
       <c r="G228" s="4">
         <v>121.50381</v>
@@ -6998,13 +6404,13 @@
         <v>8</v>
       </c>
       <c r="F229" s="4">
-        <v>24.98059</v>
+        <v>24.980589999999999</v>
       </c>
       <c r="G229" s="4">
         <v>121.53986</v>
       </c>
       <c r="H229" s="1">
-        <v>40.2</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7018,13 +6424,13 @@
         <v>11.9</v>
       </c>
       <c r="D230" s="4">
-        <v>3171.329</v>
+        <v>3171.3290000000002</v>
       </c>
       <c r="E230" s="4">
         <v>0</v>
       </c>
       <c r="F230" s="4">
-        <v>25.00115</v>
+        <v>25.001149999999999</v>
       </c>
       <c r="G230" s="4">
         <v>121.51776</v>
@@ -7050,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="F231" s="4">
-        <v>24.9489</v>
+        <v>24.948899999999998</v>
       </c>
       <c r="G231" s="4">
         <v>121.53095</v>
@@ -7070,13 +6476,13 @@
         <v>4</v>
       </c>
       <c r="D232" s="4">
-        <v>2147.376</v>
+        <v>2147.3760000000002</v>
       </c>
       <c r="E232" s="4">
         <v>3</v>
       </c>
       <c r="F232" s="4">
-        <v>24.96299</v>
+        <v>24.962990000000001</v>
       </c>
       <c r="G232" s="4">
         <v>121.51284</v>
@@ -7096,13 +6502,13 @@
         <v>16.2</v>
       </c>
       <c r="D233" s="4">
-        <v>4074.736</v>
+        <v>4074.7359999999999</v>
       </c>
       <c r="E233" s="4">
         <v>0</v>
       </c>
       <c r="F233" s="4">
-        <v>24.94235</v>
+        <v>24.942350000000001</v>
       </c>
       <c r="G233" s="4">
         <v>121.50357</v>
@@ -7122,19 +6528,19 @@
         <v>27.1</v>
       </c>
       <c r="D234" s="4">
-        <v>4412.765</v>
+        <v>4412.7650000000003</v>
       </c>
       <c r="E234" s="4">
         <v>1</v>
       </c>
       <c r="F234" s="4">
-        <v>24.95032</v>
+        <v>24.950320000000001</v>
       </c>
       <c r="G234" s="4">
         <v>121.49587</v>
       </c>
       <c r="H234" s="1">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7145,16 +6551,16 @@
         <v>2013.3333333</v>
       </c>
       <c r="C235" s="4">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="D235" s="4">
-        <v>333.3679</v>
+        <v>333.36790000000002</v>
       </c>
       <c r="E235" s="4">
         <v>9</v>
       </c>
       <c r="F235" s="4">
-        <v>24.98016</v>
+        <v>24.980160000000001</v>
       </c>
       <c r="G235" s="4">
         <v>121.53932</v>
@@ -7174,13 +6580,13 @@
         <v>8</v>
       </c>
       <c r="D236" s="4">
-        <v>2216.612</v>
+        <v>2216.6120000000001</v>
       </c>
       <c r="E236" s="4">
         <v>4</v>
       </c>
       <c r="F236" s="4">
-        <v>24.96007</v>
+        <v>24.960070000000002</v>
       </c>
       <c r="G236" s="4">
         <v>121.51361</v>
@@ -7206,13 +6612,13 @@
         <v>7</v>
       </c>
       <c r="F237" s="4">
-        <v>24.96606</v>
+        <v>24.966059999999999</v>
       </c>
       <c r="G237" s="4">
         <v>121.54297</v>
       </c>
       <c r="H237" s="1">
-        <v>39.3</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7226,13 +6632,13 @@
         <v>3.6</v>
       </c>
       <c r="D238" s="4">
-        <v>373.8389</v>
+        <v>373.83890000000002</v>
       </c>
       <c r="E238" s="4">
         <v>10</v>
       </c>
       <c r="F238" s="4">
-        <v>24.98322</v>
+        <v>24.983219999999999</v>
       </c>
       <c r="G238" s="4">
         <v>121.53765</v>
@@ -7258,10 +6664,10 @@
         <v>0</v>
       </c>
       <c r="F239" s="4">
-        <v>24.97668</v>
+        <v>24.976680000000002</v>
       </c>
       <c r="G239" s="4">
-        <v>121.52518</v>
+        <v>121.52518000000001</v>
       </c>
       <c r="H239" s="1">
         <v>39</v>
@@ -7284,10 +6690,10 @@
         <v>0</v>
       </c>
       <c r="F240" s="4">
-        <v>24.97668</v>
+        <v>24.976680000000002</v>
       </c>
       <c r="G240" s="4">
-        <v>121.52518</v>
+        <v>121.52518000000001</v>
       </c>
       <c r="H240" s="1">
         <v>40.6</v>
@@ -7301,16 +6707,16 @@
         <v>2013.5</v>
       </c>
       <c r="C241" s="4">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="D241" s="4">
-        <v>837.7233</v>
+        <v>837.72329999999999</v>
       </c>
       <c r="E241" s="4">
         <v>0</v>
       </c>
       <c r="F241" s="4">
-        <v>24.96334</v>
+        <v>24.963339999999999</v>
       </c>
       <c r="G241" s="4">
         <v>121.54767</v>
@@ -7330,13 +6736,13 @@
         <v>11</v>
       </c>
       <c r="D242" s="4">
-        <v>1712.632</v>
+        <v>1712.6320000000001</v>
       </c>
       <c r="E242" s="4">
         <v>2</v>
       </c>
       <c r="F242" s="4">
-        <v>24.96412</v>
+        <v>24.964120000000001</v>
       </c>
       <c r="G242" s="4">
         <v>121.5167</v>
@@ -7362,7 +6768,7 @@
         <v>7</v>
       </c>
       <c r="F243" s="4">
-        <v>24.96606</v>
+        <v>24.966059999999999</v>
       </c>
       <c r="G243" s="4">
         <v>121.54297</v>
@@ -7388,7 +6794,7 @@
         <v>3</v>
       </c>
       <c r="F244" s="4">
-        <v>24.96357</v>
+        <v>24.963570000000001</v>
       </c>
       <c r="G244" s="4">
         <v>121.51329</v>
@@ -7405,7 +6811,7 @@
         <v>2013.4166667</v>
       </c>
       <c r="C245" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="D245" s="4">
         <v>204.1705</v>
@@ -7443,7 +6849,7 @@
         <v>24.97213</v>
       </c>
       <c r="G246" s="4">
-        <v>121.51627</v>
+        <v>121.51627000000001</v>
       </c>
       <c r="H246" s="1">
         <v>21.7</v>
@@ -7460,19 +6866,19 @@
         <v>7.5</v>
       </c>
       <c r="D247" s="4">
-        <v>639.6198</v>
+        <v>639.61980000000005</v>
       </c>
       <c r="E247" s="4">
         <v>5</v>
       </c>
       <c r="F247" s="4">
-        <v>24.97258</v>
+        <v>24.972580000000001</v>
       </c>
       <c r="G247" s="4">
         <v>121.54814</v>
       </c>
       <c r="H247" s="1">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7483,19 +6889,19 @@
         <v>2013.4166667</v>
       </c>
       <c r="C248" s="4">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D248" s="4">
-        <v>389.8219</v>
+        <v>389.82190000000003</v>
       </c>
       <c r="E248" s="4">
         <v>6</v>
       </c>
       <c r="F248" s="4">
-        <v>24.96412</v>
+        <v>24.964120000000001</v>
       </c>
       <c r="G248" s="4">
-        <v>121.54273</v>
+        <v>121.54273000000001</v>
       </c>
       <c r="H248" s="1">
         <v>40.6</v>
@@ -7518,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="F249" s="4">
-        <v>24.96211</v>
+        <v>24.962109999999999</v>
       </c>
       <c r="G249" s="4">
         <v>121.54928</v>
@@ -7544,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="F250" s="4">
-        <v>24.96357</v>
+        <v>24.963570000000001</v>
       </c>
       <c r="G250" s="4">
         <v>121.54951</v>
@@ -7564,13 +6970,13 @@
         <v>18</v>
       </c>
       <c r="D251" s="4">
-        <v>6306.153</v>
+        <v>6306.1530000000002</v>
       </c>
       <c r="E251" s="4">
         <v>1</v>
       </c>
       <c r="F251" s="4">
-        <v>24.95743</v>
+        <v>24.957429999999999</v>
       </c>
       <c r="G251" s="4">
         <v>121.47516</v>
@@ -7587,10 +6993,10 @@
         <v>2013.1666667</v>
       </c>
       <c r="C252" s="4">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="D252" s="4">
-        <v>424.7132</v>
+        <v>424.71319999999997</v>
       </c>
       <c r="E252" s="4">
         <v>7</v>
@@ -7642,13 +7048,13 @@
         <v>5.9</v>
       </c>
       <c r="D254" s="4">
-        <v>90.45606</v>
+        <v>90.456059999999994</v>
       </c>
       <c r="E254" s="4">
         <v>9</v>
       </c>
       <c r="F254" s="4">
-        <v>24.97433</v>
+        <v>24.974329999999998</v>
       </c>
       <c r="G254" s="4">
         <v>121.5431</v>
@@ -7674,10 +7080,10 @@
         <v>2</v>
       </c>
       <c r="F255" s="4">
-        <v>24.96464</v>
+        <v>24.964639999999999</v>
       </c>
       <c r="G255" s="4">
-        <v>121.51623</v>
+        <v>121.51622999999999</v>
       </c>
       <c r="H255" s="1">
         <v>25.9</v>
@@ -7691,10 +7097,10 @@
         <v>2012.6666667</v>
       </c>
       <c r="C256" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D256" s="4">
-        <v>329.9747</v>
+        <v>329.97469999999998</v>
       </c>
       <c r="E256" s="4">
         <v>5</v>
@@ -7720,19 +7126,19 @@
         <v>31.5</v>
       </c>
       <c r="D257" s="4">
-        <v>5512.038</v>
+        <v>5512.0379999999996</v>
       </c>
       <c r="E257" s="4">
         <v>1</v>
       </c>
       <c r="F257" s="4">
-        <v>24.95095</v>
+        <v>24.950949999999999</v>
       </c>
       <c r="G257" s="4">
-        <v>121.48458</v>
+        <v>121.48457999999999</v>
       </c>
       <c r="H257" s="1">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7746,13 +7152,13 @@
         <v>14.6</v>
       </c>
       <c r="D258" s="4">
-        <v>339.2289</v>
+        <v>339.22890000000001</v>
       </c>
       <c r="E258" s="4">
         <v>1</v>
       </c>
       <c r="F258" s="4">
-        <v>24.97519</v>
+        <v>24.975190000000001</v>
       </c>
       <c r="G258" s="4">
         <v>121.53151</v>
@@ -7772,13 +7178,13 @@
         <v>17.3</v>
       </c>
       <c r="D259" s="4">
-        <v>444.1334</v>
+        <v>444.13339999999999</v>
       </c>
       <c r="E259" s="4">
         <v>1</v>
       </c>
       <c r="F259" s="4">
-        <v>24.97501</v>
+        <v>24.975010000000001</v>
       </c>
       <c r="G259" s="4">
         <v>121.5273</v>
@@ -7798,13 +7204,13 @@
         <v>0</v>
       </c>
       <c r="D260" s="4">
-        <v>292.9978</v>
+        <v>292.99779999999998</v>
       </c>
       <c r="E260" s="4">
         <v>6</v>
       </c>
       <c r="F260" s="4">
-        <v>24.97744</v>
+        <v>24.977440000000001</v>
       </c>
       <c r="G260" s="4">
         <v>121.54458</v>
@@ -7824,13 +7230,13 @@
         <v>17.7</v>
       </c>
       <c r="D261" s="4">
-        <v>837.7233</v>
+        <v>837.72329999999999</v>
       </c>
       <c r="E261" s="4">
         <v>0</v>
       </c>
       <c r="F261" s="4">
-        <v>24.96334</v>
+        <v>24.963339999999999</v>
       </c>
       <c r="G261" s="4">
         <v>121.54767</v>
@@ -7882,10 +7288,10 @@
         <v>3</v>
       </c>
       <c r="F263" s="4">
-        <v>24.95885</v>
+        <v>24.958850000000002</v>
       </c>
       <c r="G263" s="4">
-        <v>121.51359</v>
+        <v>121.51358999999999</v>
       </c>
       <c r="H263" s="1">
         <v>24.4</v>
@@ -7902,13 +7308,13 @@
         <v>15.9</v>
       </c>
       <c r="D264" s="4">
-        <v>289.3248</v>
+        <v>289.32479999999998</v>
       </c>
       <c r="E264" s="4">
         <v>5</v>
       </c>
       <c r="F264" s="4">
-        <v>24.98203</v>
+        <v>24.982030000000002</v>
       </c>
       <c r="G264" s="4">
         <v>121.54348</v>
@@ -7928,13 +7334,13 @@
         <v>3.9</v>
       </c>
       <c r="D265" s="4">
-        <v>2147.376</v>
+        <v>2147.3760000000002</v>
       </c>
       <c r="E265" s="4">
         <v>3</v>
       </c>
       <c r="F265" s="4">
-        <v>24.96299</v>
+        <v>24.962990000000001</v>
       </c>
       <c r="G265" s="4">
         <v>121.51284</v>
@@ -7954,7 +7360,7 @@
         <v>32.6</v>
       </c>
       <c r="D266" s="4">
-        <v>493.657</v>
+        <v>493.65699999999998</v>
       </c>
       <c r="E266" s="4">
         <v>7</v>
@@ -7980,13 +7386,13 @@
         <v>15.7</v>
       </c>
       <c r="D267" s="4">
-        <v>815.9314</v>
+        <v>815.93140000000005</v>
       </c>
       <c r="E267" s="4">
         <v>4</v>
       </c>
       <c r="F267" s="4">
-        <v>24.97886</v>
+        <v>24.978860000000001</v>
       </c>
       <c r="G267" s="4">
         <v>121.53464</v>
@@ -8012,7 +7418,7 @@
         <v>3</v>
       </c>
       <c r="F268" s="4">
-        <v>24.96731</v>
+        <v>24.967310000000001</v>
       </c>
       <c r="G268" s="4">
         <v>121.51486</v>
@@ -8029,16 +7435,16 @@
         <v>2012.8333333</v>
       </c>
       <c r="C269" s="4">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="D269" s="4">
-        <v>482.7581</v>
+        <v>482.75810000000001</v>
       </c>
       <c r="E269" s="4">
         <v>5</v>
       </c>
       <c r="F269" s="4">
-        <v>24.97433</v>
+        <v>24.974329999999998</v>
       </c>
       <c r="G269" s="4">
         <v>121.53863</v>
@@ -8064,7 +7470,7 @@
         <v>5</v>
       </c>
       <c r="F270" s="4">
-        <v>24.97937</v>
+        <v>24.979369999999999</v>
       </c>
       <c r="G270" s="4">
         <v>121.54245</v>
@@ -8081,16 +7487,16 @@
         <v>2013</v>
       </c>
       <c r="C271" s="4">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D271" s="4">
-        <v>837.7233</v>
+        <v>837.72329999999999</v>
       </c>
       <c r="E271" s="4">
         <v>0</v>
       </c>
       <c r="F271" s="4">
-        <v>24.96334</v>
+        <v>24.963339999999999</v>
       </c>
       <c r="G271" s="4">
         <v>121.54767</v>
@@ -8116,10 +7522,10 @@
         <v>1</v>
       </c>
       <c r="F272" s="4">
-        <v>24.9746</v>
+        <v>24.974599999999999</v>
       </c>
       <c r="G272" s="4">
-        <v>121.53046</v>
+        <v>121.53046000000001</v>
       </c>
       <c r="H272" s="1">
         <v>117.5</v>
@@ -8136,13 +7542,13 @@
         <v>17.7</v>
       </c>
       <c r="D273" s="4">
-        <v>451.6419</v>
+        <v>451.64190000000002</v>
       </c>
       <c r="E273" s="4">
         <v>8</v>
       </c>
       <c r="F273" s="4">
-        <v>24.96945</v>
+        <v>24.969449999999998</v>
       </c>
       <c r="G273" s="4">
         <v>121.5449</v>
@@ -8162,13 +7568,13 @@
         <v>13</v>
       </c>
       <c r="D274" s="4">
-        <v>492.2313</v>
+        <v>492.23129999999998</v>
       </c>
       <c r="E274" s="4">
         <v>5</v>
       </c>
       <c r="F274" s="4">
-        <v>24.96515</v>
+        <v>24.965150000000001</v>
       </c>
       <c r="G274" s="4">
         <v>121.53737</v>
@@ -8188,16 +7594,16 @@
         <v>13.2</v>
       </c>
       <c r="D275" s="4">
-        <v>170.1289</v>
+        <v>170.12889999999999</v>
       </c>
       <c r="E275" s="4">
         <v>1</v>
       </c>
       <c r="F275" s="4">
-        <v>24.97371</v>
+        <v>24.973710000000001</v>
       </c>
       <c r="G275" s="4">
-        <v>121.52984</v>
+        <v>121.52983999999999</v>
       </c>
       <c r="H275" s="1">
         <v>29.3</v>
@@ -8214,13 +7620,13 @@
         <v>27.5</v>
       </c>
       <c r="D276" s="4">
-        <v>394.0173</v>
+        <v>394.01729999999998</v>
       </c>
       <c r="E276" s="4">
         <v>7</v>
       </c>
       <c r="F276" s="4">
-        <v>24.97305</v>
+        <v>24.973050000000001</v>
       </c>
       <c r="G276" s="4">
         <v>121.53994</v>
@@ -8240,7 +7646,7 @@
         <v>1.5</v>
       </c>
       <c r="D277" s="4">
-        <v>23.38284</v>
+        <v>23.382840000000002</v>
       </c>
       <c r="E277" s="4">
         <v>7</v>
@@ -8263,16 +7669,16 @@
         <v>2013</v>
       </c>
       <c r="C278" s="4">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D278" s="4">
-        <v>461.1016</v>
+        <v>461.10160000000002</v>
       </c>
       <c r="E278" s="4">
         <v>5</v>
       </c>
       <c r="F278" s="4">
-        <v>24.95425</v>
+        <v>24.954249999999998</v>
       </c>
       <c r="G278" s="4">
         <v>121.5399</v>
@@ -8292,7 +7698,7 @@
         <v>21.2</v>
       </c>
       <c r="D279" s="4">
-        <v>2185.128</v>
+        <v>2185.1280000000002</v>
       </c>
       <c r="E279" s="4">
         <v>3</v>
@@ -8327,7 +7733,7 @@
         <v>24.95618</v>
       </c>
       <c r="G280" s="4">
-        <v>121.53844</v>
+        <v>121.53843999999999</v>
       </c>
       <c r="H280" s="1">
         <v>44</v>
@@ -8367,16 +7773,16 @@
         <v>2013.25</v>
       </c>
       <c r="C282" s="4">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D282" s="4">
-        <v>184.3302</v>
+        <v>184.33019999999999</v>
       </c>
       <c r="E282" s="4">
         <v>6</v>
       </c>
       <c r="F282" s="4">
-        <v>24.96581</v>
+        <v>24.965810000000001</v>
       </c>
       <c r="G282" s="4">
         <v>121.54086</v>
@@ -8396,13 +7802,13 @@
         <v>4.7</v>
       </c>
       <c r="D283" s="4">
-        <v>387.7721</v>
+        <v>387.77210000000002</v>
       </c>
       <c r="E283" s="4">
         <v>9</v>
       </c>
       <c r="F283" s="4">
-        <v>24.98118</v>
+        <v>24.981179999999998</v>
       </c>
       <c r="G283" s="4">
         <v>121.53788</v>
@@ -8431,7 +7837,7 @@
         <v>24.9512</v>
       </c>
       <c r="G284" s="4">
-        <v>121.549</v>
+        <v>121.54900000000001</v>
       </c>
       <c r="H284" s="1">
         <v>25.6</v>
@@ -8454,7 +7860,7 @@
         <v>2</v>
       </c>
       <c r="F285" s="4">
-        <v>24.98674</v>
+        <v>24.986740000000001</v>
       </c>
       <c r="G285" s="4">
         <v>121.51844</v>
@@ -8474,7 +7880,7 @@
         <v>15</v>
       </c>
       <c r="D286" s="4">
-        <v>383.2805</v>
+        <v>383.28050000000002</v>
       </c>
       <c r="E286" s="4">
         <v>7</v>
@@ -8500,13 +7906,13 @@
         <v>30.1</v>
       </c>
       <c r="D287" s="4">
-        <v>718.2937</v>
+        <v>718.29369999999994</v>
       </c>
       <c r="E287" s="4">
         <v>3</v>
       </c>
       <c r="F287" s="4">
-        <v>24.97509</v>
+        <v>24.975090000000002</v>
       </c>
       <c r="G287" s="4">
         <v>121.53644</v>
@@ -8526,13 +7932,13 @@
         <v>5.9</v>
       </c>
       <c r="D288" s="4">
-        <v>90.45606</v>
+        <v>90.456059999999994</v>
       </c>
       <c r="E288" s="4">
         <v>9</v>
       </c>
       <c r="F288" s="4">
-        <v>24.97433</v>
+        <v>24.974329999999998</v>
       </c>
       <c r="G288" s="4">
         <v>121.5431</v>
@@ -8552,13 +7958,13 @@
         <v>19.2</v>
       </c>
       <c r="D289" s="4">
-        <v>461.1016</v>
+        <v>461.10160000000002</v>
       </c>
       <c r="E289" s="4">
         <v>5</v>
       </c>
       <c r="F289" s="4">
-        <v>24.95425</v>
+        <v>24.954249999999998</v>
       </c>
       <c r="G289" s="4">
         <v>121.5399</v>
@@ -8575,10 +7981,10 @@
         <v>2013.5833333</v>
       </c>
       <c r="C290" s="4">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D290" s="4">
-        <v>323.6912</v>
+        <v>323.69119999999998</v>
       </c>
       <c r="E290" s="4">
         <v>6</v>
@@ -8604,13 +8010,13 @@
         <v>13.9</v>
       </c>
       <c r="D291" s="4">
-        <v>289.3248</v>
+        <v>289.32479999999998</v>
       </c>
       <c r="E291" s="4">
         <v>5</v>
       </c>
       <c r="F291" s="4">
-        <v>24.98203</v>
+        <v>24.982030000000002</v>
       </c>
       <c r="G291" s="4">
         <v>121.54348</v>
@@ -8627,16 +8033,16 @@
         <v>2013.0833333</v>
       </c>
       <c r="C292" s="4">
-        <v>37.7</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="D292" s="4">
-        <v>490.3446</v>
+        <v>490.34460000000001</v>
       </c>
       <c r="E292" s="4">
         <v>0</v>
       </c>
       <c r="F292" s="4">
-        <v>24.97217</v>
+        <v>24.972169999999998</v>
       </c>
       <c r="G292" s="4">
         <v>121.53471</v>
@@ -8656,13 +8062,13 @@
         <v>3.4</v>
       </c>
       <c r="D293" s="4">
-        <v>56.47425</v>
+        <v>56.474249999999998</v>
       </c>
       <c r="E293" s="4">
         <v>7</v>
       </c>
       <c r="F293" s="4">
-        <v>24.95744</v>
+        <v>24.957439999999998</v>
       </c>
       <c r="G293" s="4">
         <v>121.53711</v>
@@ -8682,7 +8088,7 @@
         <v>17.5</v>
       </c>
       <c r="D294" s="4">
-        <v>395.6747</v>
+        <v>395.67469999999997</v>
       </c>
       <c r="E294" s="4">
         <v>5</v>
@@ -8691,7 +8097,7 @@
         <v>24.95674</v>
       </c>
       <c r="G294" s="4">
-        <v>121.534</v>
+        <v>121.53400000000001</v>
       </c>
       <c r="H294" s="1">
         <v>24.5</v>
@@ -8708,7 +8114,7 @@
         <v>12.6</v>
       </c>
       <c r="D295" s="4">
-        <v>383.2805</v>
+        <v>383.28050000000002</v>
       </c>
       <c r="E295" s="4">
         <v>7</v>
@@ -8734,13 +8140,13 @@
         <v>26.4</v>
       </c>
       <c r="D296" s="4">
-        <v>335.5273</v>
+        <v>335.52730000000003</v>
       </c>
       <c r="E296" s="4">
         <v>6</v>
       </c>
       <c r="F296" s="4">
-        <v>24.9796</v>
+        <v>24.979600000000001</v>
       </c>
       <c r="G296" s="4">
         <v>121.5414</v>
@@ -8766,10 +8172,10 @@
         <v>3</v>
       </c>
       <c r="F297" s="4">
-        <v>24.96299</v>
+        <v>24.962990000000001</v>
       </c>
       <c r="G297" s="4">
-        <v>121.51252</v>
+        <v>121.51251999999999</v>
       </c>
       <c r="H297" s="1">
         <v>21.8</v>
@@ -8786,13 +8192,13 @@
         <v>12.5</v>
       </c>
       <c r="D298" s="4">
-        <v>1144.436</v>
+        <v>1144.4359999999999</v>
       </c>
       <c r="E298" s="4">
         <v>4</v>
       </c>
       <c r="F298" s="4">
-        <v>24.99176</v>
+        <v>24.991759999999999</v>
       </c>
       <c r="G298" s="4">
         <v>121.53456</v>
@@ -8812,13 +8218,13 @@
         <v>34.9</v>
       </c>
       <c r="D299" s="4">
-        <v>567.0349</v>
+        <v>567.03489999999999</v>
       </c>
       <c r="E299" s="4">
         <v>4</v>
       </c>
       <c r="F299" s="4">
-        <v>24.97003</v>
+        <v>24.970030000000001</v>
       </c>
       <c r="G299" s="4">
         <v>121.5458</v>
@@ -8838,13 +8244,13 @@
         <v>16.7</v>
       </c>
       <c r="D300" s="4">
-        <v>4082.015</v>
+        <v>4082.0149999999999</v>
       </c>
       <c r="E300" s="4">
         <v>0</v>
       </c>
       <c r="F300" s="4">
-        <v>24.94155</v>
+        <v>24.941549999999999</v>
       </c>
       <c r="G300" s="4">
         <v>121.50381</v>
@@ -8861,19 +8267,19 @@
         <v>2013.1666667</v>
       </c>
       <c r="C301" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="D301" s="4">
-        <v>121.7262</v>
+        <v>121.72620000000001</v>
       </c>
       <c r="E301" s="4">
         <v>10</v>
       </c>
       <c r="F301" s="4">
-        <v>24.98178</v>
+        <v>24.981780000000001</v>
       </c>
       <c r="G301" s="4">
-        <v>121.54059</v>
+        <v>121.54058999999999</v>
       </c>
       <c r="H301" s="1">
         <v>46.1</v>
@@ -8890,7 +8296,7 @@
         <v>2.5</v>
       </c>
       <c r="D302" s="4">
-        <v>156.2442</v>
+        <v>156.24420000000001</v>
       </c>
       <c r="E302" s="4">
         <v>4</v>
@@ -8916,19 +8322,19 @@
         <v>38</v>
       </c>
       <c r="D303" s="4">
-        <v>461.7848</v>
+        <v>461.78480000000002</v>
       </c>
       <c r="E303" s="4">
         <v>0</v>
       </c>
       <c r="F303" s="4">
-        <v>24.97229</v>
+        <v>24.972290000000001</v>
       </c>
       <c r="G303" s="4">
-        <v>121.53445</v>
+        <v>121.53445000000001</v>
       </c>
       <c r="H303" s="4">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8948,10 +8354,10 @@
         <v>3</v>
       </c>
       <c r="F304" s="4">
-        <v>24.95885</v>
+        <v>24.958850000000002</v>
       </c>
       <c r="G304" s="4">
-        <v>121.51359</v>
+        <v>121.51358999999999</v>
       </c>
       <c r="H304" s="4">
         <v>23.2</v>
@@ -8965,19 +8371,19 @@
         <v>2013.5</v>
       </c>
       <c r="C305" s="4">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="D305" s="4">
-        <v>439.7105</v>
+        <v>439.71050000000002</v>
       </c>
       <c r="E305" s="4">
         <v>0</v>
       </c>
       <c r="F305" s="4">
-        <v>24.97161</v>
+        <v>24.971609999999998</v>
       </c>
       <c r="G305" s="4">
-        <v>121.53423</v>
+        <v>121.53422999999999</v>
       </c>
       <c r="H305" s="4">
         <v>38.4</v>
@@ -8994,7 +8400,7 @@
         <v>20</v>
       </c>
       <c r="D306" s="4">
-        <v>1626.083</v>
+        <v>1626.0830000000001</v>
       </c>
       <c r="E306" s="4">
         <v>3</v>
@@ -9003,7 +8409,7 @@
         <v>24.96622</v>
       </c>
       <c r="G306" s="4">
-        <v>121.51668</v>
+        <v>121.51667999999999</v>
       </c>
       <c r="H306" s="4">
         <v>29.4</v>
@@ -9020,13 +8426,13 @@
         <v>16.2</v>
       </c>
       <c r="D307" s="4">
-        <v>289.3248</v>
+        <v>289.32479999999998</v>
       </c>
       <c r="E307" s="4">
         <v>5</v>
       </c>
       <c r="F307" s="4">
-        <v>24.98203</v>
+        <v>24.982030000000002</v>
       </c>
       <c r="G307" s="4">
         <v>121.54348</v>
@@ -9052,10 +8458,10 @@
         <v>1</v>
       </c>
       <c r="F308" s="4">
-        <v>24.97369</v>
+        <v>24.973690000000001</v>
       </c>
       <c r="G308" s="4">
-        <v>121.52979</v>
+        <v>121.52979000000001</v>
       </c>
       <c r="H308" s="4">
         <v>50.2</v>
@@ -9078,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="F309" s="4">
-        <v>24.9546</v>
+        <v>24.954599999999999</v>
       </c>
       <c r="G309" s="4">
         <v>121.56627</v>
@@ -9095,16 +8501,16 @@
         <v>2013.4166667</v>
       </c>
       <c r="C310" s="4">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D310" s="4">
-        <v>289.3248</v>
+        <v>289.32479999999998</v>
       </c>
       <c r="E310" s="4">
         <v>5</v>
       </c>
       <c r="F310" s="4">
-        <v>24.98203</v>
+        <v>24.982030000000002</v>
       </c>
       <c r="G310" s="4">
         <v>121.54348</v>
@@ -9130,13 +8536,13 @@
         <v>0</v>
       </c>
       <c r="F311" s="4">
-        <v>24.94883</v>
+        <v>24.948830000000001</v>
       </c>
       <c r="G311" s="4">
         <v>121.52954</v>
       </c>
       <c r="H311" s="4">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9147,7 +8553,7 @@
         <v>2013.5833333</v>
       </c>
       <c r="C312" s="4">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D312" s="4">
         <v>1643.499</v>
@@ -9156,7 +8562,7 @@
         <v>2</v>
       </c>
       <c r="F312" s="4">
-        <v>24.95394</v>
+        <v>24.953939999999999</v>
       </c>
       <c r="G312" s="4">
         <v>121.55174</v>
@@ -9182,7 +8588,7 @@
         <v>4</v>
       </c>
       <c r="F313" s="4">
-        <v>24.97425</v>
+        <v>24.974250000000001</v>
       </c>
       <c r="G313" s="4">
         <v>121.53814</v>
@@ -9225,19 +8631,19 @@
         <v>2013.3333333</v>
       </c>
       <c r="C315" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D315" s="4">
-        <v>104.8101</v>
+        <v>104.81010000000001</v>
       </c>
       <c r="E315" s="4">
         <v>5</v>
       </c>
       <c r="F315" s="4">
-        <v>24.96674</v>
+        <v>24.966740000000001</v>
       </c>
       <c r="G315" s="4">
-        <v>121.54067</v>
+        <v>121.54067000000001</v>
       </c>
       <c r="H315" s="4">
         <v>42.8</v>
@@ -9260,7 +8666,7 @@
         <v>6</v>
       </c>
       <c r="F316" s="4">
-        <v>24.97201</v>
+        <v>24.972010000000001</v>
       </c>
       <c r="G316" s="4">
         <v>121.54722</v>
@@ -9280,7 +8686,7 @@
         <v>15.6</v>
       </c>
       <c r="D317" s="4">
-        <v>1756.411</v>
+        <v>1756.4110000000001</v>
       </c>
       <c r="E317" s="4">
         <v>2</v>
@@ -9312,7 +8718,7 @@
         <v>7</v>
       </c>
       <c r="F318" s="4">
-        <v>24.96606</v>
+        <v>24.966059999999999</v>
       </c>
       <c r="G318" s="4">
         <v>121.54297</v>
@@ -9332,7 +8738,7 @@
         <v>15.6</v>
       </c>
       <c r="D319" s="4">
-        <v>752.7669</v>
+        <v>752.76689999999996</v>
       </c>
       <c r="E319" s="4">
         <v>2</v>
@@ -9364,7 +8770,7 @@
         <v>10</v>
       </c>
       <c r="F320" s="4">
-        <v>24.98343</v>
+        <v>24.983429999999998</v>
       </c>
       <c r="G320" s="4">
         <v>121.53762</v>
@@ -9384,7 +8790,7 @@
         <v>34.6</v>
       </c>
       <c r="D321" s="4">
-        <v>272.6783</v>
+        <v>272.67829999999998</v>
       </c>
       <c r="E321" s="4">
         <v>5</v>
@@ -9410,19 +8816,19 @@
         <v>13.5</v>
       </c>
       <c r="D322" s="4">
-        <v>4197.349</v>
+        <v>4197.3490000000002</v>
       </c>
       <c r="E322" s="4">
         <v>0</v>
       </c>
       <c r="F322" s="4">
-        <v>24.93885</v>
+        <v>24.938849999999999</v>
       </c>
       <c r="G322" s="4">
-        <v>121.50383</v>
+        <v>121.50382999999999</v>
       </c>
       <c r="H322" s="4">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9433,22 +8839,22 @@
         <v>2012.9166667</v>
       </c>
       <c r="C323" s="4">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D323" s="4">
-        <v>964.7496</v>
+        <v>964.74959999999999</v>
       </c>
       <c r="E323" s="4">
         <v>4</v>
       </c>
       <c r="F323" s="4">
-        <v>24.98872</v>
+        <v>24.988720000000001</v>
       </c>
       <c r="G323" s="4">
         <v>121.53411</v>
       </c>
       <c r="H323" s="4">
-        <v>37.7</v>
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9462,13 +8868,13 @@
         <v>12.9</v>
       </c>
       <c r="D324" s="4">
-        <v>187.4823</v>
+        <v>187.48230000000001</v>
       </c>
       <c r="E324" s="4">
         <v>1</v>
       </c>
       <c r="F324" s="4">
-        <v>24.97388</v>
+        <v>24.973880000000001</v>
       </c>
       <c r="G324" s="4">
         <v>121.52981</v>
@@ -9488,13 +8894,13 @@
         <v>28.6</v>
       </c>
       <c r="D325" s="4">
-        <v>197.1338</v>
+        <v>197.13380000000001</v>
       </c>
       <c r="E325" s="4">
         <v>6</v>
       </c>
       <c r="F325" s="4">
-        <v>24.97631</v>
+        <v>24.976310000000002</v>
       </c>
       <c r="G325" s="4">
         <v>121.54436</v>
@@ -9514,13 +8920,13 @@
         <v>12.4</v>
       </c>
       <c r="D326" s="4">
-        <v>1712.632</v>
+        <v>1712.6320000000001</v>
       </c>
       <c r="E326" s="4">
         <v>2</v>
       </c>
       <c r="F326" s="4">
-        <v>24.96412</v>
+        <v>24.964120000000001</v>
       </c>
       <c r="G326" s="4">
         <v>121.5167</v>
@@ -9563,16 +8969,16 @@
         <v>2013.5</v>
       </c>
       <c r="C328" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D328" s="4">
-        <v>56.47425</v>
+        <v>56.474249999999998</v>
       </c>
       <c r="E328" s="4">
         <v>7</v>
       </c>
       <c r="F328" s="4">
-        <v>24.95744</v>
+        <v>24.957439999999998</v>
       </c>
       <c r="G328" s="4">
         <v>121.53711</v>
@@ -9592,19 +8998,19 @@
         <v>3.5</v>
       </c>
       <c r="D329" s="4">
-        <v>757.3377</v>
+        <v>757.33770000000004</v>
       </c>
       <c r="E329" s="4">
         <v>3</v>
       </c>
       <c r="F329" s="4">
-        <v>24.97538</v>
+        <v>24.975380000000001</v>
       </c>
       <c r="G329" s="4">
         <v>121.54971</v>
       </c>
       <c r="H329" s="4">
-        <v>36.7</v>
+        <v>36.700000000000003</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -9624,7 +9030,7 @@
         <v>3</v>
       </c>
       <c r="F330" s="4">
-        <v>24.97003</v>
+        <v>24.970030000000001</v>
       </c>
       <c r="G330" s="4">
         <v>121.51696</v>
@@ -9644,16 +9050,16 @@
         <v>13.6</v>
       </c>
       <c r="D331" s="4">
-        <v>4197.349</v>
+        <v>4197.3490000000002</v>
       </c>
       <c r="E331" s="4">
         <v>0</v>
       </c>
       <c r="F331" s="4">
-        <v>24.93885</v>
+        <v>24.938849999999999</v>
       </c>
       <c r="G331" s="4">
-        <v>121.50383</v>
+        <v>121.50382999999999</v>
       </c>
       <c r="H331" s="4">
         <v>19.2</v>
@@ -9676,10 +9082,10 @@
         <v>0</v>
       </c>
       <c r="F332" s="4">
-        <v>24.94935</v>
+        <v>24.949349999999999</v>
       </c>
       <c r="G332" s="4">
-        <v>121.53046</v>
+        <v>121.53046000000001</v>
       </c>
       <c r="H332" s="4">
         <v>12.8</v>
@@ -9696,13 +9102,13 @@
         <v>25.6</v>
       </c>
       <c r="D333" s="4">
-        <v>4519.69</v>
+        <v>4519.6899999999996</v>
       </c>
       <c r="E333" s="4">
         <v>0</v>
       </c>
       <c r="F333" s="4">
-        <v>24.94826</v>
+        <v>24.948260000000001</v>
       </c>
       <c r="G333" s="4">
         <v>121.49587</v>
@@ -9719,16 +9125,16 @@
         <v>2013.1666667</v>
       </c>
       <c r="C334" s="4">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="D334" s="4">
-        <v>617.7134</v>
+        <v>617.71339999999998</v>
       </c>
       <c r="E334" s="4">
         <v>2</v>
       </c>
       <c r="F334" s="4">
-        <v>24.97577</v>
+        <v>24.975770000000001</v>
       </c>
       <c r="G334" s="4">
         <v>121.53475</v>
@@ -9748,16 +9154,16 @@
         <v>7.8</v>
       </c>
       <c r="D335" s="4">
-        <v>104.8101</v>
+        <v>104.81010000000001</v>
       </c>
       <c r="E335" s="4">
         <v>5</v>
       </c>
       <c r="F335" s="4">
-        <v>24.96674</v>
+        <v>24.966740000000001</v>
       </c>
       <c r="G335" s="4">
-        <v>121.54067</v>
+        <v>121.54067000000001</v>
       </c>
       <c r="H335" s="4">
         <v>38.4</v>
@@ -9800,16 +9206,16 @@
         <v>27.3</v>
       </c>
       <c r="D337" s="4">
-        <v>337.6016</v>
+        <v>337.60160000000002</v>
       </c>
       <c r="E337" s="4">
         <v>6</v>
       </c>
       <c r="F337" s="4">
-        <v>24.96431</v>
+        <v>24.964310000000001</v>
       </c>
       <c r="G337" s="4">
-        <v>121.54063</v>
+        <v>121.54062999999999</v>
       </c>
       <c r="H337" s="4">
         <v>36.5</v>
@@ -9823,19 +9229,19 @@
         <v>2012.8333333</v>
       </c>
       <c r="C338" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D338" s="4">
-        <v>1867.233</v>
+        <v>1867.2329999999999</v>
       </c>
       <c r="E338" s="4">
         <v>2</v>
       </c>
       <c r="F338" s="4">
-        <v>24.98407</v>
+        <v>24.984069999999999</v>
       </c>
       <c r="G338" s="4">
-        <v>121.51748</v>
+        <v>121.51748000000001</v>
       </c>
       <c r="H338" s="4">
         <v>35.6</v>
@@ -9852,13 +9258,13 @@
         <v>31.3</v>
       </c>
       <c r="D339" s="4">
-        <v>600.8604</v>
+        <v>600.86040000000003</v>
       </c>
       <c r="E339" s="4">
         <v>5</v>
       </c>
       <c r="F339" s="4">
-        <v>24.96871</v>
+        <v>24.968710000000002</v>
       </c>
       <c r="G339" s="4">
         <v>121.54651</v>
@@ -9878,19 +9284,19 @@
         <v>31.5</v>
       </c>
       <c r="D340" s="4">
-        <v>258.186</v>
+        <v>258.18599999999998</v>
       </c>
       <c r="E340" s="4">
         <v>9</v>
       </c>
       <c r="F340" s="4">
-        <v>24.96867</v>
+        <v>24.968669999999999</v>
       </c>
       <c r="G340" s="4">
-        <v>121.54331</v>
+        <v>121.54331000000001</v>
       </c>
       <c r="H340" s="4">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9904,7 +9310,7 @@
         <v>1.7</v>
       </c>
       <c r="D341" s="4">
-        <v>329.9747</v>
+        <v>329.97469999999998</v>
       </c>
       <c r="E341" s="4">
         <v>5</v>
@@ -9936,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="F342" s="4">
-        <v>24.97281</v>
+        <v>24.972809999999999</v>
       </c>
       <c r="G342" s="4">
         <v>121.53265</v>
@@ -9956,13 +9362,13 @@
         <v>13</v>
       </c>
       <c r="D343" s="4">
-        <v>750.0704</v>
+        <v>750.07039999999995</v>
       </c>
       <c r="E343" s="4">
         <v>2</v>
       </c>
       <c r="F343" s="4">
-        <v>24.97371</v>
+        <v>24.973710000000001</v>
       </c>
       <c r="G343" s="4">
         <v>121.54951</v>
@@ -9982,13 +9388,13 @@
         <v>5.7</v>
       </c>
       <c r="D344" s="4">
-        <v>90.45606</v>
+        <v>90.456059999999994</v>
       </c>
       <c r="E344" s="4">
         <v>9</v>
       </c>
       <c r="F344" s="4">
-        <v>24.97433</v>
+        <v>24.974329999999998</v>
       </c>
       <c r="G344" s="4">
         <v>121.5431</v>
@@ -10008,16 +9414,16 @@
         <v>33.5</v>
       </c>
       <c r="D345" s="4">
-        <v>563.2854</v>
+        <v>563.28539999999998</v>
       </c>
       <c r="E345" s="4">
         <v>8</v>
       </c>
       <c r="F345" s="4">
-        <v>24.98223</v>
+        <v>24.982230000000001</v>
       </c>
       <c r="G345" s="4">
-        <v>121.53597</v>
+        <v>121.53597000000001</v>
       </c>
       <c r="H345" s="4">
         <v>46.6</v>
@@ -10040,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="F346" s="4">
-        <v>24.998</v>
+        <v>24.998000000000001</v>
       </c>
       <c r="G346" s="4">
         <v>121.5155</v>
@@ -10060,7 +9466,7 @@
         <v>0</v>
       </c>
       <c r="D347" s="4">
-        <v>185.4296</v>
+        <v>185.42959999999999</v>
       </c>
       <c r="E347" s="4">
         <v>0</v>
@@ -10086,13 +9492,13 @@
         <v>13.2</v>
       </c>
       <c r="D348" s="4">
-        <v>1712.632</v>
+        <v>1712.6320000000001</v>
       </c>
       <c r="E348" s="4">
         <v>2</v>
       </c>
       <c r="F348" s="4">
-        <v>24.96412</v>
+        <v>24.964120000000001</v>
       </c>
       <c r="G348" s="4">
         <v>121.5167</v>
@@ -10109,16 +9515,16 @@
         <v>2013.5833333</v>
       </c>
       <c r="C349" s="4">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D349" s="4">
-        <v>6488.021</v>
+        <v>6488.0209999999997</v>
       </c>
       <c r="E349" s="4">
         <v>1</v>
       </c>
       <c r="F349" s="4">
-        <v>24.95719</v>
+        <v>24.957190000000001</v>
       </c>
       <c r="G349" s="4">
         <v>121.47353</v>
@@ -10135,16 +9541,16 @@
         <v>2012.8333333</v>
       </c>
       <c r="C350" s="4">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D350" s="4">
-        <v>259.6607</v>
+        <v>259.66070000000002</v>
       </c>
       <c r="E350" s="4">
         <v>6</v>
       </c>
       <c r="F350" s="4">
-        <v>24.97585</v>
+        <v>24.975850000000001</v>
       </c>
       <c r="G350" s="4">
         <v>121.54516</v>
@@ -10164,16 +9570,16 @@
         <v>7.8</v>
       </c>
       <c r="D351" s="4">
-        <v>104.8101</v>
+        <v>104.81010000000001</v>
       </c>
       <c r="E351" s="4">
         <v>5</v>
       </c>
       <c r="F351" s="4">
-        <v>24.96674</v>
+        <v>24.966740000000001</v>
       </c>
       <c r="G351" s="4">
-        <v>121.54067</v>
+        <v>121.54067000000001</v>
       </c>
       <c r="H351" s="4">
         <v>47</v>
@@ -10190,13 +9596,13 @@
         <v>13.2</v>
       </c>
       <c r="D352" s="4">
-        <v>492.2313</v>
+        <v>492.23129999999998</v>
       </c>
       <c r="E352" s="4">
         <v>5</v>
       </c>
       <c r="F352" s="4">
-        <v>24.96515</v>
+        <v>24.965150000000001</v>
       </c>
       <c r="G352" s="4">
         <v>121.53737</v>
@@ -10216,13 +9622,13 @@
         <v>4</v>
       </c>
       <c r="D353" s="4">
-        <v>2180.245</v>
+        <v>2180.2449999999999</v>
       </c>
       <c r="E353" s="4">
         <v>3</v>
       </c>
       <c r="F353" s="4">
-        <v>24.96324</v>
+        <v>24.963239999999999</v>
       </c>
       <c r="G353" s="4">
         <v>121.51241</v>
@@ -10239,10 +9645,10 @@
         <v>2012.8333333</v>
       </c>
       <c r="C354" s="4">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D354" s="4">
-        <v>2674.961</v>
+        <v>2674.9609999999998</v>
       </c>
       <c r="E354" s="4">
         <v>3</v>
@@ -10265,16 +9671,16 @@
         <v>2013.5</v>
       </c>
       <c r="C355" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D355" s="4">
-        <v>2147.376</v>
+        <v>2147.3760000000002</v>
       </c>
       <c r="E355" s="4">
         <v>3</v>
       </c>
       <c r="F355" s="4">
-        <v>24.96299</v>
+        <v>24.962990000000001</v>
       </c>
       <c r="G355" s="4">
         <v>121.51284</v>
@@ -10294,7 +9700,7 @@
         <v>12.2</v>
       </c>
       <c r="D356" s="4">
-        <v>1360.139</v>
+        <v>1360.1389999999999</v>
       </c>
       <c r="E356" s="4">
         <v>1</v>
@@ -10303,7 +9709,7 @@
         <v>24.95204</v>
       </c>
       <c r="G356" s="4">
-        <v>121.54842</v>
+        <v>121.54841999999999</v>
       </c>
       <c r="H356" s="4">
         <v>30.1</v>
@@ -10320,7 +9726,7 @@
         <v>3.8</v>
       </c>
       <c r="D357" s="4">
-        <v>383.8624</v>
+        <v>383.86239999999998</v>
       </c>
       <c r="E357" s="4">
         <v>5</v>
@@ -10346,13 +9752,13 @@
         <v>10.3</v>
       </c>
       <c r="D358" s="4">
-        <v>211.4473</v>
+        <v>211.44730000000001</v>
       </c>
       <c r="E358" s="4">
         <v>1</v>
       </c>
       <c r="F358" s="4">
-        <v>24.97417</v>
+        <v>24.974170000000001</v>
       </c>
       <c r="G358" s="4">
         <v>121.52999</v>
@@ -10372,13 +9778,13 @@
         <v>0</v>
       </c>
       <c r="D359" s="4">
-        <v>338.9679</v>
+        <v>338.96789999999999</v>
       </c>
       <c r="E359" s="4">
         <v>9</v>
       </c>
       <c r="F359" s="4">
-        <v>24.96853</v>
+        <v>24.968530000000001</v>
       </c>
       <c r="G359" s="4">
         <v>121.54413</v>
@@ -10395,16 +9801,16 @@
         <v>2013.1666667</v>
       </c>
       <c r="C360" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D360" s="4">
-        <v>193.5845</v>
+        <v>193.58449999999999</v>
       </c>
       <c r="E360" s="4">
         <v>6</v>
       </c>
       <c r="F360" s="4">
-        <v>24.96571</v>
+        <v>24.965710000000001</v>
       </c>
       <c r="G360" s="4">
         <v>121.54089</v>
@@ -10424,7 +9830,7 @@
         <v>5.6</v>
       </c>
       <c r="D361" s="4">
-        <v>2408.993</v>
+        <v>2408.9929999999999</v>
       </c>
       <c r="E361" s="4">
         <v>0</v>
@@ -10450,16 +9856,16 @@
         <v>32.9</v>
       </c>
       <c r="D362" s="4">
-        <v>87.30222</v>
+        <v>87.302220000000005</v>
       </c>
       <c r="E362" s="4">
         <v>10</v>
       </c>
       <c r="F362" s="4">
-        <v>24.983</v>
+        <v>24.983000000000001</v>
       </c>
       <c r="G362" s="4">
-        <v>121.54022</v>
+        <v>121.54022000000001</v>
       </c>
       <c r="H362" s="4">
         <v>47.1</v>
@@ -10476,7 +9882,7 @@
         <v>41.4</v>
       </c>
       <c r="D363" s="4">
-        <v>281.205</v>
+        <v>281.20499999999998</v>
       </c>
       <c r="E363" s="4">
         <v>8</v>
@@ -10499,7 +9905,7 @@
         <v>2013.4166667</v>
       </c>
       <c r="C364" s="4">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D364" s="4">
         <v>967.4</v>
@@ -10508,7 +9914,7 @@
         <v>4</v>
       </c>
       <c r="F364" s="4">
-        <v>24.98872</v>
+        <v>24.988720000000001</v>
       </c>
       <c r="G364" s="4">
         <v>121.53408</v>
@@ -10525,7 +9931,7 @@
         <v>2013.5</v>
       </c>
       <c r="C365" s="4">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="D365" s="4">
         <v>109.9455</v>
@@ -10534,7 +9940,7 @@
         <v>10</v>
       </c>
       <c r="F365" s="4">
-        <v>24.98182</v>
+        <v>24.981819999999999</v>
       </c>
       <c r="G365" s="4">
         <v>121.54086</v>
@@ -10551,16 +9957,16 @@
         <v>2013.4166667</v>
       </c>
       <c r="C366" s="4">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="D366" s="4">
-        <v>614.1394</v>
+        <v>614.13940000000002</v>
       </c>
       <c r="E366" s="4">
         <v>7</v>
       </c>
       <c r="F366" s="4">
-        <v>24.97913</v>
+        <v>24.979130000000001</v>
       </c>
       <c r="G366" s="4">
         <v>121.53666</v>
@@ -10580,13 +9986,13 @@
         <v>17.3</v>
       </c>
       <c r="D367" s="4">
-        <v>2261.432</v>
+        <v>2261.4319999999998</v>
       </c>
       <c r="E367" s="4">
         <v>4</v>
       </c>
       <c r="F367" s="4">
-        <v>24.96182</v>
+        <v>24.961819999999999</v>
       </c>
       <c r="G367" s="4">
         <v>121.51222</v>
@@ -10606,16 +10012,16 @@
         <v>14.2</v>
       </c>
       <c r="D368" s="4">
-        <v>1801.544</v>
+        <v>1801.5440000000001</v>
       </c>
       <c r="E368" s="4">
         <v>1</v>
       </c>
       <c r="F368" s="4">
-        <v>24.95153</v>
+        <v>24.951530000000002</v>
       </c>
       <c r="G368" s="4">
-        <v>121.55254</v>
+        <v>121.55253999999999</v>
       </c>
       <c r="H368" s="4">
         <v>24.8</v>
@@ -10638,7 +10044,7 @@
         <v>2</v>
       </c>
       <c r="F369" s="4">
-        <v>24.96464</v>
+        <v>24.964639999999999</v>
       </c>
       <c r="G369" s="4">
         <v>121.51531</v>
@@ -10658,13 +10064,13 @@
         <v>18.2</v>
       </c>
       <c r="D370" s="4">
-        <v>350.8515</v>
+        <v>350.85149999999999</v>
       </c>
       <c r="E370" s="4">
         <v>1</v>
       </c>
       <c r="F370" s="4">
-        <v>24.97544</v>
+        <v>24.975439999999999</v>
       </c>
       <c r="G370" s="4">
         <v>121.53119</v>
@@ -10684,7 +10090,7 @@
         <v>20.2</v>
       </c>
       <c r="D371" s="4">
-        <v>2185.128</v>
+        <v>2185.1280000000002</v>
       </c>
       <c r="E371" s="4">
         <v>3</v>
@@ -10710,13 +10116,13 @@
         <v>15.9</v>
       </c>
       <c r="D372" s="4">
-        <v>289.3248</v>
+        <v>289.32479999999998</v>
       </c>
       <c r="E372" s="4">
         <v>5</v>
       </c>
       <c r="F372" s="4">
-        <v>24.98203</v>
+        <v>24.982030000000002</v>
       </c>
       <c r="G372" s="4">
         <v>121.54348</v>
@@ -10733,7 +10139,7 @@
         <v>2013.5</v>
       </c>
       <c r="C373" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D373" s="4">
         <v>312.8963</v>
@@ -10742,10 +10148,10 @@
         <v>5</v>
       </c>
       <c r="F373" s="4">
-        <v>24.95591</v>
+        <v>24.955909999999999</v>
       </c>
       <c r="G373" s="4">
-        <v>121.53956</v>
+        <v>121.53955999999999</v>
       </c>
       <c r="H373" s="4">
         <v>51.7</v>
@@ -10768,7 +10174,7 @@
         <v>7</v>
       </c>
       <c r="F374" s="4">
-        <v>24.96628</v>
+        <v>24.966280000000001</v>
       </c>
       <c r="G374" s="4">
         <v>121.54196</v>
@@ -10788,13 +10194,13 @@
         <v>0</v>
       </c>
       <c r="D375" s="4">
-        <v>274.0144</v>
+        <v>274.01440000000002</v>
       </c>
       <c r="E375" s="4">
         <v>1</v>
       </c>
       <c r="F375" s="4">
-        <v>24.9748</v>
+        <v>24.974799999999998</v>
       </c>
       <c r="G375" s="4">
         <v>121.53059</v>
@@ -10820,7 +10226,7 @@
         <v>5</v>
       </c>
       <c r="F376" s="4">
-        <v>24.97937</v>
+        <v>24.979369999999999</v>
       </c>
       <c r="G376" s="4">
         <v>121.54245</v>
@@ -10840,13 +10246,13 @@
         <v>21.7</v>
       </c>
       <c r="D377" s="4">
-        <v>1157.988</v>
+        <v>1157.9880000000001</v>
       </c>
       <c r="E377" s="4">
         <v>0</v>
       </c>
       <c r="F377" s="4">
-        <v>24.96165</v>
+        <v>24.961649999999999</v>
       </c>
       <c r="G377" s="4">
         <v>121.55011</v>
@@ -10872,7 +10278,7 @@
         <v>2</v>
       </c>
       <c r="F378" s="4">
-        <v>24.96447</v>
+        <v>24.964469999999999</v>
       </c>
       <c r="G378" s="4">
         <v>121.51649</v>
@@ -10892,13 +10298,13 @@
         <v>3.9</v>
       </c>
       <c r="D379" s="4">
-        <v>49.66105</v>
+        <v>49.661050000000003</v>
       </c>
       <c r="E379" s="4">
         <v>8</v>
       </c>
       <c r="F379" s="4">
-        <v>24.95836</v>
+        <v>24.958359999999999</v>
       </c>
       <c r="G379" s="4">
         <v>121.53756</v>
@@ -10915,7 +10321,7 @@
         <v>2013.3333333</v>
       </c>
       <c r="C380" s="4">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="D380" s="4">
         <v>587.8877</v>
@@ -10924,7 +10330,7 @@
         <v>8</v>
       </c>
       <c r="F380" s="4">
-        <v>24.97077</v>
+        <v>24.970770000000002</v>
       </c>
       <c r="G380" s="4">
         <v>121.54634</v>
@@ -10944,13 +10350,13 @@
         <v>0</v>
       </c>
       <c r="D381" s="4">
-        <v>292.9978</v>
+        <v>292.99779999999998</v>
       </c>
       <c r="E381" s="4">
         <v>6</v>
       </c>
       <c r="F381" s="4">
-        <v>24.97744</v>
+        <v>24.977440000000001</v>
       </c>
       <c r="G381" s="4">
         <v>121.54458</v>
@@ -10970,13 +10376,13 @@
         <v>14.1</v>
       </c>
       <c r="D382" s="4">
-        <v>289.3248</v>
+        <v>289.32479999999998</v>
       </c>
       <c r="E382" s="4">
         <v>5</v>
       </c>
       <c r="F382" s="4">
-        <v>24.98203</v>
+        <v>24.982030000000002</v>
       </c>
       <c r="G382" s="4">
         <v>121.54348</v>
@@ -10996,13 +10402,13 @@
         <v>8</v>
       </c>
       <c r="D383" s="4">
-        <v>132.5469</v>
+        <v>132.54689999999999</v>
       </c>
       <c r="E383" s="4">
         <v>9</v>
       </c>
       <c r="F383" s="4">
-        <v>24.98298</v>
+        <v>24.982980000000001</v>
       </c>
       <c r="G383" s="4">
         <v>121.53981</v>
@@ -11022,7 +10428,7 @@
         <v>16.3</v>
       </c>
       <c r="D384" s="4">
-        <v>3529.564</v>
+        <v>3529.5639999999999</v>
       </c>
       <c r="E384" s="4">
         <v>0</v>
@@ -11048,19 +10454,19 @@
         <v>29.1</v>
       </c>
       <c r="D385" s="4">
-        <v>506.1144</v>
+        <v>506.11439999999999</v>
       </c>
       <c r="E385" s="4">
         <v>4</v>
       </c>
       <c r="F385" s="4">
-        <v>24.97845</v>
+        <v>24.978449999999999</v>
       </c>
       <c r="G385" s="4">
-        <v>121.53889</v>
+        <v>121.53888999999999</v>
       </c>
       <c r="H385" s="4">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11071,7 +10477,7 @@
         <v>2012.75</v>
       </c>
       <c r="C386" s="4">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D386" s="4">
         <v>4066.587</v>
@@ -11080,10 +10486,10 @@
         <v>0</v>
       </c>
       <c r="F386" s="4">
-        <v>24.94297</v>
+        <v>24.942969999999999</v>
       </c>
       <c r="G386" s="4">
-        <v>121.50342</v>
+        <v>121.50342000000001</v>
       </c>
       <c r="H386" s="4">
         <v>12.9</v>
@@ -11100,13 +10506,13 @@
         <v>18.3</v>
       </c>
       <c r="D387" s="4">
-        <v>82.88643</v>
+        <v>82.886430000000004</v>
       </c>
       <c r="E387" s="4">
         <v>10</v>
       </c>
       <c r="F387" s="4">
-        <v>24.983</v>
+        <v>24.983000000000001</v>
       </c>
       <c r="G387" s="4">
         <v>121.54026</v>
@@ -11126,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="D388" s="4">
-        <v>185.4296</v>
+        <v>185.42959999999999</v>
       </c>
       <c r="E388" s="4">
         <v>0</v>
@@ -11152,16 +10558,16 @@
         <v>16.2</v>
       </c>
       <c r="D389" s="4">
-        <v>2103.555</v>
+        <v>2103.5549999999998</v>
       </c>
       <c r="E389" s="4">
         <v>3</v>
       </c>
       <c r="F389" s="4">
-        <v>24.96042</v>
+        <v>24.960419999999999</v>
       </c>
       <c r="G389" s="4">
-        <v>121.51462</v>
+        <v>121.51461999999999</v>
       </c>
       <c r="H389" s="4">
         <v>25.6</v>
@@ -11178,13 +10584,13 @@
         <v>10.4</v>
       </c>
       <c r="D390" s="4">
-        <v>2251.938</v>
+        <v>2251.9380000000001</v>
       </c>
       <c r="E390" s="4">
         <v>4</v>
       </c>
       <c r="F390" s="4">
-        <v>24.95957</v>
+        <v>24.959569999999999</v>
       </c>
       <c r="G390" s="4">
         <v>121.51353</v>
@@ -11204,13 +10610,13 @@
         <v>40.9</v>
       </c>
       <c r="D391" s="4">
-        <v>122.3619</v>
+        <v>122.36190000000001</v>
       </c>
       <c r="E391" s="4">
         <v>8</v>
       </c>
       <c r="F391" s="4">
-        <v>24.96756</v>
+        <v>24.967559999999999</v>
       </c>
       <c r="G391" s="4">
         <v>121.5423</v>
@@ -11227,19 +10633,19 @@
         <v>2013.5</v>
       </c>
       <c r="C392" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="D392" s="4">
-        <v>377.8302</v>
+        <v>377.83019999999999</v>
       </c>
       <c r="E392" s="4">
         <v>9</v>
       </c>
       <c r="F392" s="4">
-        <v>24.97151</v>
+        <v>24.971509999999999</v>
       </c>
       <c r="G392" s="4">
-        <v>121.5435</v>
+        <v>121.54349999999999</v>
       </c>
       <c r="H392" s="4">
         <v>38.6</v>
@@ -11262,7 +10668,7 @@
         <v>1</v>
       </c>
       <c r="F393" s="4">
-        <v>24.95155</v>
+        <v>24.951550000000001</v>
       </c>
       <c r="G393" s="4">
         <v>121.55387</v>
@@ -11282,7 +10688,7 @@
         <v>42.7</v>
       </c>
       <c r="D394" s="4">
-        <v>443.802</v>
+        <v>443.80200000000002</v>
       </c>
       <c r="E394" s="4">
         <v>6</v>
@@ -11294,7 +10700,7 @@
         <v>121.53874</v>
       </c>
       <c r="H394" s="4">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -11305,7 +10711,7 @@
         <v>2013</v>
       </c>
       <c r="C395" s="4">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D395" s="4">
         <v>967.4</v>
@@ -11314,13 +10720,13 @@
         <v>4</v>
       </c>
       <c r="F395" s="4">
-        <v>24.98872</v>
+        <v>24.988720000000001</v>
       </c>
       <c r="G395" s="4">
         <v>121.53408</v>
       </c>
       <c r="H395" s="4">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11334,16 +10740,16 @@
         <v>32.6</v>
       </c>
       <c r="D396" s="4">
-        <v>4136.271</v>
+        <v>4136.2709999999997</v>
       </c>
       <c r="E396" s="4">
         <v>1</v>
       </c>
       <c r="F396" s="4">
-        <v>24.95544</v>
+        <v>24.955439999999999</v>
       </c>
       <c r="G396" s="4">
-        <v>121.4963</v>
+        <v>121.49630000000001</v>
       </c>
       <c r="H396" s="4">
         <v>24.7</v>
@@ -11360,7 +10766,7 @@
         <v>21.2</v>
       </c>
       <c r="D397" s="4">
-        <v>512.5487</v>
+        <v>512.54870000000005</v>
       </c>
       <c r="E397" s="4">
         <v>4</v>
@@ -11386,13 +10792,13 @@
         <v>37.1</v>
       </c>
       <c r="D398" s="4">
-        <v>918.6357</v>
+        <v>918.63570000000004</v>
       </c>
       <c r="E398" s="4">
         <v>1</v>
       </c>
       <c r="F398" s="4">
-        <v>24.97198</v>
+        <v>24.971979999999999</v>
       </c>
       <c r="G398" s="4">
         <v>121.55063</v>
@@ -11424,7 +10830,7 @@
         <v>121.53406</v>
       </c>
       <c r="H399" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -11444,7 +10850,7 @@
         <v>2</v>
       </c>
       <c r="F400" s="4">
-        <v>24.96447</v>
+        <v>24.964469999999999</v>
       </c>
       <c r="G400" s="4">
         <v>121.51649</v>
@@ -11464,19 +10870,19 @@
         <v>12.7</v>
       </c>
       <c r="D401" s="4">
-        <v>170.1289</v>
+        <v>170.12889999999999</v>
       </c>
       <c r="E401" s="4">
         <v>1</v>
       </c>
       <c r="F401" s="4">
-        <v>24.97371</v>
+        <v>24.973710000000001</v>
       </c>
       <c r="G401" s="4">
-        <v>121.52984</v>
+        <v>121.52983999999999</v>
       </c>
       <c r="H401" s="4">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -11490,13 +10896,13 @@
         <v>26.8</v>
       </c>
       <c r="D402" s="4">
-        <v>482.7581</v>
+        <v>482.75810000000001</v>
       </c>
       <c r="E402" s="4">
         <v>5</v>
       </c>
       <c r="F402" s="4">
-        <v>24.97433</v>
+        <v>24.974329999999998</v>
       </c>
       <c r="G402" s="4">
         <v>121.53863</v>
@@ -11516,13 +10922,13 @@
         <v>7.6</v>
       </c>
       <c r="D403" s="4">
-        <v>2175.03</v>
+        <v>2175.0300000000002</v>
       </c>
       <c r="E403" s="4">
         <v>3</v>
       </c>
       <c r="F403" s="4">
-        <v>24.96305</v>
+        <v>24.963049999999999</v>
       </c>
       <c r="G403" s="4">
         <v>121.51254</v>
@@ -11542,13 +10948,13 @@
         <v>12.7</v>
       </c>
       <c r="D404" s="4">
-        <v>187.4823</v>
+        <v>187.48230000000001</v>
       </c>
       <c r="E404" s="4">
         <v>1</v>
       </c>
       <c r="F404" s="4">
-        <v>24.97388</v>
+        <v>24.973880000000001</v>
       </c>
       <c r="G404" s="4">
         <v>121.52981</v>
@@ -11568,19 +10974,19 @@
         <v>30.9</v>
       </c>
       <c r="D405" s="4">
-        <v>161.942</v>
+        <v>161.94200000000001</v>
       </c>
       <c r="E405" s="4">
         <v>9</v>
       </c>
       <c r="F405" s="4">
-        <v>24.98353</v>
+        <v>24.983529999999998</v>
       </c>
       <c r="G405" s="4">
         <v>121.53966</v>
       </c>
       <c r="H405" s="4">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11591,16 +10997,16 @@
         <v>2013.3333333</v>
       </c>
       <c r="C406" s="4">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D406" s="4">
-        <v>289.3248</v>
+        <v>289.32479999999998</v>
       </c>
       <c r="E406" s="4">
         <v>5</v>
       </c>
       <c r="F406" s="4">
-        <v>24.98203</v>
+        <v>24.982030000000002</v>
       </c>
       <c r="G406" s="4">
         <v>121.54348</v>
@@ -11620,19 +11026,19 @@
         <v>23</v>
       </c>
       <c r="D407" s="4">
-        <v>130.9945</v>
+        <v>130.99449999999999</v>
       </c>
       <c r="E407" s="4">
         <v>6</v>
       </c>
       <c r="F407" s="4">
-        <v>24.95663</v>
+        <v>24.956630000000001</v>
       </c>
       <c r="G407" s="4">
         <v>121.53765</v>
       </c>
       <c r="H407" s="4">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11652,7 +11058,7 @@
         <v>7</v>
       </c>
       <c r="F408" s="4">
-        <v>24.97293</v>
+        <v>24.972930000000002</v>
       </c>
       <c r="G408" s="4">
         <v>121.54026</v>
@@ -11672,7 +11078,7 @@
         <v>5.2</v>
       </c>
       <c r="D409" s="4">
-        <v>2408.993</v>
+        <v>2408.9929999999999</v>
       </c>
       <c r="E409" s="4">
         <v>0</v>
@@ -11698,7 +11104,7 @@
         <v>18.5</v>
       </c>
       <c r="D410" s="4">
-        <v>2175.744</v>
+        <v>2175.7440000000001</v>
       </c>
       <c r="E410" s="4">
         <v>3</v>
@@ -11707,7 +11113,7 @@
         <v>24.9633</v>
       </c>
       <c r="G410" s="4">
-        <v>121.51243</v>
+        <v>121.51242999999999</v>
       </c>
       <c r="H410" s="4">
         <v>28.1</v>
@@ -11724,13 +11130,13 @@
         <v>13.7</v>
       </c>
       <c r="D411" s="4">
-        <v>4082.015</v>
+        <v>4082.0149999999999</v>
       </c>
       <c r="E411" s="4">
         <v>0</v>
       </c>
       <c r="F411" s="4">
-        <v>24.94155</v>
+        <v>24.941549999999999</v>
       </c>
       <c r="G411" s="4">
         <v>121.50381</v>
@@ -11750,13 +11156,13 @@
         <v>5.6</v>
       </c>
       <c r="D412" s="4">
-        <v>90.45606</v>
+        <v>90.456059999999994</v>
       </c>
       <c r="E412" s="4">
         <v>9</v>
       </c>
       <c r="F412" s="4">
-        <v>24.97433</v>
+        <v>24.974329999999998</v>
       </c>
       <c r="G412" s="4">
         <v>121.5431</v>
@@ -11776,13 +11182,13 @@
         <v>18.8</v>
       </c>
       <c r="D413" s="4">
-        <v>390.9696</v>
+        <v>390.96960000000001</v>
       </c>
       <c r="E413" s="4">
         <v>7</v>
       </c>
       <c r="F413" s="4">
-        <v>24.97923</v>
+        <v>24.979230000000001</v>
       </c>
       <c r="G413" s="4">
         <v>121.53986</v>
@@ -11802,16 +11208,16 @@
         <v>8.1</v>
       </c>
       <c r="D414" s="4">
-        <v>104.8101</v>
+        <v>104.81010000000001</v>
       </c>
       <c r="E414" s="4">
         <v>5</v>
       </c>
       <c r="F414" s="4">
-        <v>24.96674</v>
+        <v>24.966740000000001</v>
       </c>
       <c r="G414" s="4">
-        <v>121.54067</v>
+        <v>121.54067000000001</v>
       </c>
       <c r="H414" s="4">
         <v>52.5</v>
@@ -11828,13 +11234,13 @@
         <v>6.5</v>
       </c>
       <c r="D415" s="4">
-        <v>90.45606</v>
+        <v>90.456059999999994</v>
       </c>
       <c r="E415" s="4">
         <v>9</v>
       </c>
       <c r="F415" s="4">
-        <v>24.97433</v>
+        <v>24.974329999999998</v>
       </c>
       <c r="G415" s="4">
         <v>121.5431</v>
@@ -11844,7 +11250,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>